--- a/한국경비협회/경비협회.xlsx
+++ b/한국경비협회/경비협회.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RPA\Documents\UiPath\한국경비협회\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5C1B01E-9137-4862-8BE0-DAC55C98B7A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEF538B8-F0FB-46D7-88A7-36FAAC46BB7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D08E1224-83CF-4A5A-904B-EB79F7B04E7A}"/>
+    <workbookView xWindow="5808" yWindow="2580" windowWidth="17280" windowHeight="8964" xr2:uid="{D08E1224-83CF-4A5A-904B-EB79F7B04E7A}"/>
   </bookViews>
   <sheets>
     <sheet name="이메일" sheetId="1" r:id="rId1"/>
@@ -29,6 +29,2001 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1001" uniqueCount="661">
+  <si>
+    <t>번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원사명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대표</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소재지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전화번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이메일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문혜자</t>
+  </si>
+  <si>
+    <t>울산</t>
+  </si>
+  <si>
+    <t>052-993-8523</t>
+  </si>
+  <si>
+    <t>(주)세림비엠씨</t>
+  </si>
+  <si>
+    <t>김은복</t>
+  </si>
+  <si>
+    <t>서울</t>
+  </si>
+  <si>
+    <t>02-383-4565</t>
+  </si>
+  <si>
+    <t>주식회사 더현종합관리</t>
+  </si>
+  <si>
+    <t>박효현</t>
+  </si>
+  <si>
+    <t>경기</t>
+  </si>
+  <si>
+    <t>031-972-1565</t>
+  </si>
+  <si>
+    <t>(주)씨큐테크</t>
+  </si>
+  <si>
+    <t>장흥열</t>
+  </si>
+  <si>
+    <t>충청</t>
+  </si>
+  <si>
+    <t>070-4239-7779</t>
+  </si>
+  <si>
+    <t>(주)시큐테크</t>
+  </si>
+  <si>
+    <t>주식회사 더빌코리아</t>
+  </si>
+  <si>
+    <t>박주희</t>
+  </si>
+  <si>
+    <t>043-237-6586</t>
+  </si>
+  <si>
+    <t>주식회사 세진기업</t>
+  </si>
+  <si>
+    <t>박나리</t>
+  </si>
+  <si>
+    <t>인천</t>
+  </si>
+  <si>
+    <t>032-859-8889</t>
+  </si>
+  <si>
+    <t>--</t>
+  </si>
+  <si>
+    <t>(주)애니원시큐리티</t>
+  </si>
+  <si>
+    <t>031-225-7760</t>
+  </si>
+  <si>
+    <t>주식회사 애니원시큐리티</t>
+  </si>
+  <si>
+    <t>전규옥</t>
+  </si>
+  <si>
+    <t>(주)프라임서비스</t>
+  </si>
+  <si>
+    <t>양은경</t>
+  </si>
+  <si>
+    <t>02-2607-0277</t>
+  </si>
+  <si>
+    <t>(주)골드스톤글로벌</t>
+  </si>
+  <si>
+    <t>김성훈</t>
+  </si>
+  <si>
+    <t>02-738-0833</t>
+  </si>
+  <si>
+    <t>(주)지원시스템</t>
+  </si>
+  <si>
+    <t>심정윤</t>
+  </si>
+  <si>
+    <t>부산</t>
+  </si>
+  <si>
+    <t>055-314-32542</t>
+  </si>
+  <si>
+    <t>(주)지앤텍</t>
+  </si>
+  <si>
+    <t>남영호</t>
+  </si>
+  <si>
+    <t>02-3463-9478</t>
+  </si>
+  <si>
+    <t>(주)새한환경</t>
+  </si>
+  <si>
+    <t>박미화,이승규</t>
+  </si>
+  <si>
+    <t>대전</t>
+  </si>
+  <si>
+    <t>042-635-9091</t>
+  </si>
+  <si>
+    <t>에스씨지솔루션즈(주)</t>
+  </si>
+  <si>
+    <t>김민용</t>
+  </si>
+  <si>
+    <t>02-3660-8347</t>
+  </si>
+  <si>
+    <t>(주)동아에스앤에프</t>
+  </si>
+  <si>
+    <t>김진아</t>
+  </si>
+  <si>
+    <t>경상</t>
+  </si>
+  <si>
+    <t>055-274-9112</t>
+  </si>
+  <si>
+    <t>(주)오비에프산업</t>
+  </si>
+  <si>
+    <t>서순자</t>
+  </si>
+  <si>
+    <t>에이비씨서비스</t>
+  </si>
+  <si>
+    <t>김혁진</t>
+  </si>
+  <si>
+    <t>051-715-8669</t>
+  </si>
+  <si>
+    <t>(주)삼성그린이엔지</t>
+  </si>
+  <si>
+    <t>선계희</t>
+  </si>
+  <si>
+    <t>광주</t>
+  </si>
+  <si>
+    <t>010-4628-0119</t>
+  </si>
+  <si>
+    <t>주식회사 하나로홀딩스</t>
+  </si>
+  <si>
+    <t>정진원</t>
+  </si>
+  <si>
+    <t>032-515-5179</t>
+  </si>
+  <si>
+    <t>진성토탈서비스(주)</t>
+  </si>
+  <si>
+    <t>최민호</t>
+  </si>
+  <si>
+    <t>055-382-5792</t>
+  </si>
+  <si>
+    <t>우진관리주식회사</t>
+  </si>
+  <si>
+    <t>정장곤</t>
+  </si>
+  <si>
+    <t>02-938-3305</t>
+  </si>
+  <si>
+    <t>(주)클린아시아</t>
+  </si>
+  <si>
+    <t>박병찬</t>
+  </si>
+  <si>
+    <t>경남</t>
+  </si>
+  <si>
+    <t>055-264-2501</t>
+  </si>
+  <si>
+    <t>주식회사 백년종합관리</t>
+  </si>
+  <si>
+    <t>이가연</t>
+  </si>
+  <si>
+    <t>031-495-4991</t>
+  </si>
+  <si>
+    <t>그린탑에이주식회사</t>
+  </si>
+  <si>
+    <t>정준철</t>
+  </si>
+  <si>
+    <t>02-312-2570</t>
+  </si>
+  <si>
+    <t>(주)코리아잡앤잡</t>
+  </si>
+  <si>
+    <t>문영국</t>
+  </si>
+  <si>
+    <t>051-745-9129</t>
+  </si>
+  <si>
+    <t>(주)봉한</t>
+  </si>
+  <si>
+    <t>041-565-9771</t>
+  </si>
+  <si>
+    <t>(주)백년종합관리</t>
+  </si>
+  <si>
+    <t>031-495-4990</t>
+  </si>
+  <si>
+    <t>주식회사 자비스넷</t>
+  </si>
+  <si>
+    <t>박주영</t>
+  </si>
+  <si>
+    <t>02-6332-6500</t>
+  </si>
+  <si>
+    <t>(주)씨.시스템</t>
+  </si>
+  <si>
+    <t>김성원</t>
+  </si>
+  <si>
+    <t>태광이앤씨주식회사</t>
+  </si>
+  <si>
+    <t>김정자</t>
+  </si>
+  <si>
+    <t>042-321-8647</t>
+  </si>
+  <si>
+    <t>더블레싱종합관리(주)</t>
+  </si>
+  <si>
+    <t>이태경</t>
+  </si>
+  <si>
+    <t>031-214-0693</t>
+  </si>
+  <si>
+    <t>인앤인주택관리(주)</t>
+  </si>
+  <si>
+    <t>강석</t>
+  </si>
+  <si>
+    <t>02-3211-3335</t>
+  </si>
+  <si>
+    <t>주식회사 에이디티캡스 금천지점</t>
+  </si>
+  <si>
+    <t>박진효</t>
+  </si>
+  <si>
+    <t>02-6293-7890</t>
+  </si>
+  <si>
+    <t>주식회사 온케어</t>
+  </si>
+  <si>
+    <t>선장훈</t>
+  </si>
+  <si>
+    <t>051-852-3638</t>
+  </si>
+  <si>
+    <t>주식회사화랑보안</t>
+  </si>
+  <si>
+    <t>김성대</t>
+  </si>
+  <si>
+    <t>052-276-4112</t>
+  </si>
+  <si>
+    <t>삼창</t>
+  </si>
+  <si>
+    <t>이준형</t>
+  </si>
+  <si>
+    <t>010-4148-3754</t>
+  </si>
+  <si>
+    <t>(주)케이에스메이트</t>
+  </si>
+  <si>
+    <t>이덕희</t>
+  </si>
+  <si>
+    <t>02-704-3001</t>
+  </si>
+  <si>
+    <t>대화안전관리(주)</t>
+  </si>
+  <si>
+    <t>원길호</t>
+  </si>
+  <si>
+    <t>031-969-3978</t>
+  </si>
+  <si>
+    <t>에버이엔지</t>
+  </si>
+  <si>
+    <t>백승덕</t>
+  </si>
+  <si>
+    <t>031-291-7455</t>
+  </si>
+  <si>
+    <t>중부발전서비스(주)</t>
+  </si>
+  <si>
+    <t>정춘돌</t>
+  </si>
+  <si>
+    <t>070-4247-3235</t>
+  </si>
+  <si>
+    <t>참진</t>
+  </si>
+  <si>
+    <t>김춘자</t>
+  </si>
+  <si>
+    <t>전라</t>
+  </si>
+  <si>
+    <t>063-471-1701</t>
+  </si>
+  <si>
+    <t>태영그린(주)</t>
+  </si>
+  <si>
+    <t>장현성</t>
+  </si>
+  <si>
+    <t>02-955-6622</t>
+  </si>
+  <si>
+    <t>주식회사 비에스코퍼레이션</t>
+  </si>
+  <si>
+    <t>허상범</t>
+  </si>
+  <si>
+    <t>062-714-2929</t>
+  </si>
+  <si>
+    <t>(주)코스텍</t>
+  </si>
+  <si>
+    <t>정선경</t>
+  </si>
+  <si>
+    <t>051-625-1113</t>
+  </si>
+  <si>
+    <t>(주)피케이와이</t>
+  </si>
+  <si>
+    <t>박진경</t>
+  </si>
+  <si>
+    <t>02-2653-3950</t>
+  </si>
+  <si>
+    <t>성우씨에스 주식회사</t>
+  </si>
+  <si>
+    <t>이동호</t>
+  </si>
+  <si>
+    <t>대구</t>
+  </si>
+  <si>
+    <t>053-761-4445</t>
+  </si>
+  <si>
+    <t>아크로비엠에스</t>
+  </si>
+  <si>
+    <t>이귀숙</t>
+  </si>
+  <si>
+    <t>02-2067-3003</t>
+  </si>
+  <si>
+    <t>(주)가온티비엠</t>
+  </si>
+  <si>
+    <t>김영승</t>
+  </si>
+  <si>
+    <t>02-886-0301</t>
+  </si>
+  <si>
+    <t>대건자산관리(주)</t>
+  </si>
+  <si>
+    <t>류재만</t>
+  </si>
+  <si>
+    <t>코웨포서비스(주)</t>
+  </si>
+  <si>
+    <t>강동환</t>
+  </si>
+  <si>
+    <t>041-675-7121</t>
+  </si>
+  <si>
+    <t>(주)자이온</t>
+  </si>
+  <si>
+    <t>구나정</t>
+  </si>
+  <si>
+    <t>051-972-9128</t>
+  </si>
+  <si>
+    <t>(주)삼광개발</t>
+  </si>
+  <si>
+    <t>김일환</t>
+  </si>
+  <si>
+    <t>031-224-3484</t>
+  </si>
+  <si>
+    <t>(주)휴먼플러스(경기)</t>
+  </si>
+  <si>
+    <t>강도일</t>
+  </si>
+  <si>
+    <t>031-242-9919</t>
+  </si>
+  <si>
+    <t>유한회사쉐필드</t>
+  </si>
+  <si>
+    <t>박성윤,문지환</t>
+  </si>
+  <si>
+    <t>042-486-6007</t>
+  </si>
+  <si>
+    <t>(주) 덕진</t>
+  </si>
+  <si>
+    <t>김진태, 임미자</t>
+  </si>
+  <si>
+    <t>043-260-1148</t>
+  </si>
+  <si>
+    <t>(주)아이케이에스</t>
+  </si>
+  <si>
+    <t>이강한,김성남</t>
+  </si>
+  <si>
+    <t>02-855-6021</t>
+  </si>
+  <si>
+    <t>럭키시스템(주)</t>
+  </si>
+  <si>
+    <t>박임이</t>
+  </si>
+  <si>
+    <t>02-461-2201</t>
+  </si>
+  <si>
+    <t>(주)마한환경</t>
+  </si>
+  <si>
+    <t>김광범</t>
+  </si>
+  <si>
+    <t>(주)보람의일터</t>
+  </si>
+  <si>
+    <t>박해남</t>
+  </si>
+  <si>
+    <t>055-543-0770</t>
+  </si>
+  <si>
+    <t>동원선설산업(주)</t>
+  </si>
+  <si>
+    <t>신동균</t>
+  </si>
+  <si>
+    <t>02-589-3614</t>
+  </si>
+  <si>
+    <t>(주)로이안</t>
+  </si>
+  <si>
+    <t>방준형</t>
+  </si>
+  <si>
+    <t>051-746-5991</t>
+  </si>
+  <si>
+    <t>박미화, 이승규</t>
+  </si>
+  <si>
+    <t>042-630-9091</t>
+  </si>
+  <si>
+    <t>(주)가겐투안</t>
+  </si>
+  <si>
+    <t>허영진</t>
+  </si>
+  <si>
+    <t>02-398-0007</t>
+  </si>
+  <si>
+    <t>아이엠개발(주)</t>
+  </si>
+  <si>
+    <t>정숙인</t>
+  </si>
+  <si>
+    <t>053-985-0006</t>
+  </si>
+  <si>
+    <t>(주)두잉피플플러스</t>
+  </si>
+  <si>
+    <t>정승원</t>
+  </si>
+  <si>
+    <t>070-7201-5000</t>
+  </si>
+  <si>
+    <t>(주)창성</t>
+  </si>
+  <si>
+    <t>강정욱</t>
+  </si>
+  <si>
+    <t>055-253-1553</t>
+  </si>
+  <si>
+    <t>010-9954-1172</t>
+  </si>
+  <si>
+    <t>주식회사 서원</t>
+  </si>
+  <si>
+    <t>이용운</t>
+  </si>
+  <si>
+    <t>051-612-0909</t>
+  </si>
+  <si>
+    <t>성원시스텍주식회사</t>
+  </si>
+  <si>
+    <t>이영탁</t>
+  </si>
+  <si>
+    <t>031-754-8789</t>
+  </si>
+  <si>
+    <t>오성아이앤씨</t>
+  </si>
+  <si>
+    <t>조혜성</t>
+  </si>
+  <si>
+    <t>070-8236-5163</t>
+  </si>
+  <si>
+    <t>소프트경비</t>
+  </si>
+  <si>
+    <t>김준환</t>
+  </si>
+  <si>
+    <t>070-7771-5517</t>
+  </si>
+  <si>
+    <t>주식회사스마트시큐리티</t>
+  </si>
+  <si>
+    <t>이동준,이동영</t>
+  </si>
+  <si>
+    <t>055-745-3112</t>
+  </si>
+  <si>
+    <t>박미화</t>
+  </si>
+  <si>
+    <t>(주)두언</t>
+  </si>
+  <si>
+    <t>김필환</t>
+  </si>
+  <si>
+    <t>02-516-5612</t>
+  </si>
+  <si>
+    <t>(주)잡매니아</t>
+  </si>
+  <si>
+    <t>신종철</t>
+  </si>
+  <si>
+    <t>02-3445-5733</t>
+  </si>
+  <si>
+    <t>누리에이치앤디(주)</t>
+  </si>
+  <si>
+    <t>박무영</t>
+  </si>
+  <si>
+    <t>02-430-2922</t>
+  </si>
+  <si>
+    <t>주식회사 캡스텍</t>
+  </si>
+  <si>
+    <t>박세영</t>
+  </si>
+  <si>
+    <t>031-242-0187</t>
+  </si>
+  <si>
+    <t>(주)신강개발</t>
+  </si>
+  <si>
+    <t>최해진 김해숙</t>
+  </si>
+  <si>
+    <t>031-416-2841</t>
+  </si>
+  <si>
+    <t>(주)티앤아이기획</t>
+  </si>
+  <si>
+    <t>채진혁</t>
+  </si>
+  <si>
+    <t>02-1877-0676</t>
+  </si>
+  <si>
+    <t>(주)필립피엠씨</t>
+  </si>
+  <si>
+    <t>최구철</t>
+  </si>
+  <si>
+    <t>(주)동아씨에스</t>
+  </si>
+  <si>
+    <t>이은정</t>
+  </si>
+  <si>
+    <t>02-977-7901</t>
+  </si>
+  <si>
+    <t>대승관리(주)</t>
+  </si>
+  <si>
+    <t>양대석</t>
+  </si>
+  <si>
+    <t>(유)호원</t>
+  </si>
+  <si>
+    <t>최정자</t>
+  </si>
+  <si>
+    <t>우송산업(주)</t>
+  </si>
+  <si>
+    <t>지원근</t>
+  </si>
+  <si>
+    <t>031-718-2300</t>
+  </si>
+  <si>
+    <t>(주)우원티엠</t>
+  </si>
+  <si>
+    <t>이근영</t>
+  </si>
+  <si>
+    <t>02-445-5511</t>
+  </si>
+  <si>
+    <t>(주)데이지</t>
+  </si>
+  <si>
+    <t>김정희</t>
+  </si>
+  <si>
+    <t>031-698-3479</t>
+  </si>
+  <si>
+    <t>신화환경(합)</t>
+  </si>
+  <si>
+    <t>박근서</t>
+  </si>
+  <si>
+    <t>강원</t>
+  </si>
+  <si>
+    <t>033-375-2104</t>
+  </si>
+  <si>
+    <t>주식회사 가드텍</t>
+  </si>
+  <si>
+    <t>강동일</t>
+  </si>
+  <si>
+    <t>031-885-5934</t>
+  </si>
+  <si>
+    <t>범창기업주식회사</t>
+  </si>
+  <si>
+    <t>박승연</t>
+  </si>
+  <si>
+    <t>031-889-4966</t>
+  </si>
+  <si>
+    <t>유한회사 두레산업</t>
+  </si>
+  <si>
+    <t>김광섭</t>
+  </si>
+  <si>
+    <t>062-528-5588</t>
+  </si>
+  <si>
+    <t>(주)이지스가드</t>
+  </si>
+  <si>
+    <t>원승현</t>
+  </si>
+  <si>
+    <t>032-721-8022</t>
+  </si>
+  <si>
+    <t>(주)에이티에스에스</t>
+  </si>
+  <si>
+    <t>함상욱</t>
+  </si>
+  <si>
+    <t>02-1600-0512</t>
+  </si>
+  <si>
+    <t>크린관리 주식회사</t>
+  </si>
+  <si>
+    <t>조용운</t>
+  </si>
+  <si>
+    <t>02-6925-1778</t>
+  </si>
+  <si>
+    <t>창조보완 주식회사</t>
+  </si>
+  <si>
+    <t>한순화</t>
+  </si>
+  <si>
+    <t>031-8065-5910</t>
+  </si>
+  <si>
+    <t>주식회사 리앤박해양</t>
+  </si>
+  <si>
+    <t>이춘우</t>
+  </si>
+  <si>
+    <t>010-2020-1181</t>
+  </si>
+  <si>
+    <t>(주)에이스탑 51</t>
+  </si>
+  <si>
+    <t>오규태</t>
+  </si>
+  <si>
+    <t>진성에스디주식회사</t>
+  </si>
+  <si>
+    <t>이용권</t>
+  </si>
+  <si>
+    <t>053-956-6467</t>
+  </si>
+  <si>
+    <t>(주)사람코퍼레이션</t>
+  </si>
+  <si>
+    <t>박해순</t>
+  </si>
+  <si>
+    <t>02-517-2550</t>
+  </si>
+  <si>
+    <t>두손산업개발 주식회사</t>
+  </si>
+  <si>
+    <t>김교상</t>
+  </si>
+  <si>
+    <t>032-655-8817</t>
+  </si>
+  <si>
+    <t>(주)동도시스템</t>
+  </si>
+  <si>
+    <t>김유기</t>
+  </si>
+  <si>
+    <t>02-2277-0070</t>
+  </si>
+  <si>
+    <t>(주)쎈텀큐</t>
+  </si>
+  <si>
+    <t>최희주</t>
+  </si>
+  <si>
+    <t>02-488-8808</t>
+  </si>
+  <si>
+    <t>이승규</t>
+  </si>
+  <si>
+    <t>시큐텍(주)</t>
+  </si>
+  <si>
+    <t>이인호</t>
+  </si>
+  <si>
+    <t>070-4047-1694</t>
+  </si>
+  <si>
+    <t>(주)미래환경</t>
+  </si>
+  <si>
+    <t>박주왕</t>
+  </si>
+  <si>
+    <t>031-722-0045</t>
+  </si>
+  <si>
+    <t>한전 에프엠에스 주식회사</t>
+  </si>
+  <si>
+    <t>이병식</t>
+  </si>
+  <si>
+    <t>061-820-7328</t>
+  </si>
+  <si>
+    <t>(주)제아이씨</t>
+  </si>
+  <si>
+    <t>최명순</t>
+  </si>
+  <si>
+    <t>033-673-1155</t>
+  </si>
+  <si>
+    <t>성도에너지</t>
+  </si>
+  <si>
+    <t>김성엽</t>
+  </si>
+  <si>
+    <t>031-719-2415</t>
+  </si>
+  <si>
+    <t>주식회사모아ㅣ관리</t>
+  </si>
+  <si>
+    <t>권신정</t>
+  </si>
+  <si>
+    <t>02-355-8004</t>
+  </si>
+  <si>
+    <t>KBS시큐리티</t>
+  </si>
+  <si>
+    <t>배정철</t>
+  </si>
+  <si>
+    <t>02-6099-7113</t>
+  </si>
+  <si>
+    <t>삼구아이앤씨</t>
+  </si>
+  <si>
+    <t>동일범</t>
+  </si>
+  <si>
+    <t>02-828-3939</t>
+  </si>
+  <si>
+    <t>(유) 현대관리시스템</t>
+  </si>
+  <si>
+    <t>최태근</t>
+  </si>
+  <si>
+    <t>02-434-0809</t>
+  </si>
+  <si>
+    <t>이세큐</t>
+  </si>
+  <si>
+    <t>임화숙</t>
+  </si>
+  <si>
+    <t>02-529-2041</t>
+  </si>
+  <si>
+    <t>(주)어울림에이치알에스</t>
+  </si>
+  <si>
+    <t>이승원</t>
+  </si>
+  <si>
+    <t>02-2678-5354</t>
+  </si>
+  <si>
+    <t>더 가디언스</t>
+  </si>
+  <si>
+    <t>손기언</t>
+  </si>
+  <si>
+    <t>02-2273-1300</t>
+  </si>
+  <si>
+    <t>(주)에스시스템</t>
+  </si>
+  <si>
+    <t>김용찬</t>
+  </si>
+  <si>
+    <t>055-296-3118</t>
+  </si>
+  <si>
+    <t>대한주택종합관리(주)</t>
+  </si>
+  <si>
+    <t>민정기</t>
+  </si>
+  <si>
+    <t>042-526-8220</t>
+  </si>
+  <si>
+    <t>가더</t>
+  </si>
+  <si>
+    <t>신재영</t>
+  </si>
+  <si>
+    <t>02-6925-1356</t>
+  </si>
+  <si>
+    <t>(주)코드원에스에스(CODEONE SS)</t>
+  </si>
+  <si>
+    <t>이윤희</t>
+  </si>
+  <si>
+    <t>충북</t>
+  </si>
+  <si>
+    <t>043-266-0001</t>
+  </si>
+  <si>
+    <t>주식회사 코드원</t>
+  </si>
+  <si>
+    <t>동중영</t>
+  </si>
+  <si>
+    <t>043-267-0001</t>
+  </si>
+  <si>
+    <t>은하수종합관리</t>
+  </si>
+  <si>
+    <t>백행기</t>
+  </si>
+  <si>
+    <t>031-283-0099</t>
+  </si>
+  <si>
+    <t>(주)한길이앤씨</t>
+  </si>
+  <si>
+    <t>이천식</t>
+  </si>
+  <si>
+    <t>031-892-4315</t>
+  </si>
+  <si>
+    <t>(주)뉴맨테크</t>
+  </si>
+  <si>
+    <t>최동준</t>
+  </si>
+  <si>
+    <t>02-471-8220</t>
+  </si>
+  <si>
+    <t>(주)이데아그룹</t>
+  </si>
+  <si>
+    <t>이건희</t>
+  </si>
+  <si>
+    <t>02-2613-3003</t>
+  </si>
+  <si>
+    <t>주식회사이데아그룹</t>
+  </si>
+  <si>
+    <t>진양엠티에스(주)</t>
+  </si>
+  <si>
+    <t>정상원</t>
+  </si>
+  <si>
+    <t>02-3019-6114</t>
+  </si>
+  <si>
+    <t>유한회사 호원</t>
+  </si>
+  <si>
+    <t>063-831-0885</t>
+  </si>
+  <si>
+    <t>인동종합관리 주식회사</t>
+  </si>
+  <si>
+    <t>이화수</t>
+  </si>
+  <si>
+    <t>02-951-5220</t>
+  </si>
+  <si>
+    <t>(주)씨큐리티원</t>
+  </si>
+  <si>
+    <t>이상노</t>
+  </si>
+  <si>
+    <t>043-216-7282</t>
+  </si>
+  <si>
+    <t>주식회사 에이치큐에스</t>
+  </si>
+  <si>
+    <t>김재민</t>
+  </si>
+  <si>
+    <t>070-4694-3611</t>
+  </si>
+  <si>
+    <t>제상에스디(주)</t>
+  </si>
+  <si>
+    <t>양혜련</t>
+  </si>
+  <si>
+    <t>02-414-5504</t>
+  </si>
+  <si>
+    <t>(주)코스모스기획</t>
+  </si>
+  <si>
+    <t>박정국</t>
+  </si>
+  <si>
+    <t>032-282-2112</t>
+  </si>
+  <si>
+    <t>더그린(주)</t>
+  </si>
+  <si>
+    <t>전우선</t>
+  </si>
+  <si>
+    <t>055-264-1520</t>
+  </si>
+  <si>
+    <t>(주)은하수종합관리</t>
+  </si>
+  <si>
+    <t>그린코리아</t>
+  </si>
+  <si>
+    <t>유용섭</t>
+  </si>
+  <si>
+    <t>031-8003-5679</t>
+  </si>
+  <si>
+    <t>고려휴먼스디에스</t>
+  </si>
+  <si>
+    <t>윤수연</t>
+  </si>
+  <si>
+    <t>02-3450-9518</t>
+  </si>
+  <si>
+    <t>(주)대양테크윈</t>
+  </si>
+  <si>
+    <t>박인권</t>
+  </si>
+  <si>
+    <t>032-229-5319</t>
+  </si>
+  <si>
+    <t>(주)에스에이치네트웍스</t>
+  </si>
+  <si>
+    <t>서미옥</t>
+  </si>
+  <si>
+    <t>031-341-0796</t>
+  </si>
+  <si>
+    <t>(주)씨피에스인벤테라</t>
+  </si>
+  <si>
+    <t>윤효범</t>
+  </si>
+  <si>
+    <t>062-384-6262</t>
+  </si>
+  <si>
+    <t>룩인터내셔널</t>
+  </si>
+  <si>
+    <t>송기훈</t>
+  </si>
+  <si>
+    <t>02-1800-3801</t>
+  </si>
+  <si>
+    <t>황금산업(주)</t>
+  </si>
+  <si>
+    <t>김성숙</t>
+  </si>
+  <si>
+    <t>061-761-6688</t>
+  </si>
+  <si>
+    <t>이더블유피서비스(주)</t>
+  </si>
+  <si>
+    <t>정영철</t>
+  </si>
+  <si>
+    <t>052-916-8805</t>
+  </si>
+  <si>
+    <t>주식회사 정인티비엠</t>
+  </si>
+  <si>
+    <t>김종율</t>
+  </si>
+  <si>
+    <t>055-385-0500</t>
+  </si>
+  <si>
+    <t>주식회사 프로시큐리티</t>
+  </si>
+  <si>
+    <t>김정현</t>
+  </si>
+  <si>
+    <t>선택</t>
+  </si>
+  <si>
+    <t>02-911-9991</t>
+  </si>
+  <si>
+    <t>필씨엔에스</t>
+  </si>
+  <si>
+    <t>계희경</t>
+  </si>
+  <si>
+    <t>02-363-1201</t>
+  </si>
+  <si>
+    <t>(주)이피씨</t>
+  </si>
+  <si>
+    <t>성백남</t>
+  </si>
+  <si>
+    <t>031-203-6330</t>
+  </si>
+  <si>
+    <t>주식회사 수호시스템</t>
+  </si>
+  <si>
+    <t>이완배</t>
+  </si>
+  <si>
+    <t>세종</t>
+  </si>
+  <si>
+    <t>041-551-0112</t>
+  </si>
+  <si>
+    <t>수광 주식회사</t>
+  </si>
+  <si>
+    <t>02-818-8546</t>
+  </si>
+  <si>
+    <t>주식회사에스비시큐리티</t>
+  </si>
+  <si>
+    <t>이영호</t>
+  </si>
+  <si>
+    <t>051-622-1210</t>
+  </si>
+  <si>
+    <t>주식회사 케이티에스잡</t>
+  </si>
+  <si>
+    <t>강진구</t>
+  </si>
+  <si>
+    <t>02-3665-2226</t>
+  </si>
+  <si>
+    <t>(주)더현종합관리</t>
+  </si>
+  <si>
+    <t>(주)새한티에스</t>
+  </si>
+  <si>
+    <t>예명애</t>
+  </si>
+  <si>
+    <t>051-807-2661</t>
+  </si>
+  <si>
+    <t>(주)휴먼엠에스</t>
+  </si>
+  <si>
+    <t>이경미</t>
+  </si>
+  <si>
+    <t>070-4177-8985</t>
+  </si>
+  <si>
+    <t>금도실업(주)</t>
+  </si>
+  <si>
+    <t>한치양</t>
+  </si>
+  <si>
+    <t>042-221-0231</t>
+  </si>
+  <si>
+    <t>엔케이에스씨 주식회사</t>
+  </si>
+  <si>
+    <t>김지은</t>
+  </si>
+  <si>
+    <t>070-4068-2322</t>
+  </si>
+  <si>
+    <t>하나자산관리(주)</t>
+  </si>
+  <si>
+    <t>황병열</t>
+  </si>
+  <si>
+    <t>02-711-3182</t>
+  </si>
+  <si>
+    <t>주식회사 세인시큐리티</t>
+  </si>
+  <si>
+    <t>최지혁</t>
+  </si>
+  <si>
+    <t>031-8047-0300</t>
+  </si>
+  <si>
+    <t>제일씨앤에스(주)</t>
+  </si>
+  <si>
+    <t>차성호</t>
+  </si>
+  <si>
+    <t>032-469-5114</t>
+  </si>
+  <si>
+    <t>(주)한화에스테이트</t>
+  </si>
+  <si>
+    <t>이강만</t>
+  </si>
+  <si>
+    <t>(주)메리트매니지먼트</t>
+  </si>
+  <si>
+    <t>나혁</t>
+  </si>
+  <si>
+    <t>063-463-8870</t>
+  </si>
+  <si>
+    <t>명신주택관리(주)</t>
+  </si>
+  <si>
+    <t>김응인</t>
+  </si>
+  <si>
+    <t>02-6959-6767</t>
+  </si>
+  <si>
+    <t>테크인코리아</t>
+  </si>
+  <si>
+    <t>이광욱</t>
+  </si>
+  <si>
+    <t>02-469-4500</t>
+  </si>
+  <si>
+    <t>주시회사메디엔젤</t>
+  </si>
+  <si>
+    <t>최규덕</t>
+  </si>
+  <si>
+    <t>02-2232-6080</t>
+  </si>
+  <si>
+    <t>(주)엠스퀘어</t>
+  </si>
+  <si>
+    <t>민병용</t>
+  </si>
+  <si>
+    <t>02-888-4882</t>
+  </si>
+  <si>
+    <t>(주)가온엠에스</t>
+  </si>
+  <si>
+    <t>정재문</t>
+  </si>
+  <si>
+    <t>02-3664-1211</t>
+  </si>
+  <si>
+    <t>주식회사가온에프엠</t>
+  </si>
+  <si>
+    <t>안지우</t>
+  </si>
+  <si>
+    <t>010-9970-5222</t>
+  </si>
+  <si>
+    <t>프로종합관리(주)</t>
+  </si>
+  <si>
+    <t>권용준</t>
+  </si>
+  <si>
+    <t>02-894-6136</t>
+  </si>
+  <si>
+    <t>(주)명경수호</t>
+  </si>
+  <si>
+    <t>홍현주</t>
+  </si>
+  <si>
+    <t>02-2694-1191</t>
+  </si>
+  <si>
+    <t>대한노령사회적협동조합</t>
+  </si>
+  <si>
+    <t>장한나</t>
+  </si>
+  <si>
+    <t>02-6205-7988</t>
+  </si>
+  <si>
+    <t>주식회사 제이원</t>
+  </si>
+  <si>
+    <t>이은주</t>
+  </si>
+  <si>
+    <t>031-663-7729</t>
+  </si>
+  <si>
+    <t>(주)대덕종합이엔지</t>
+  </si>
+  <si>
+    <t>김옥림, 하태권</t>
+  </si>
+  <si>
+    <t>0505-282-7575</t>
+  </si>
+  <si>
+    <t>주식회사 발렉스특수물류</t>
+  </si>
+  <si>
+    <t>한백수</t>
+  </si>
+  <si>
+    <t>02-3393-8394</t>
+  </si>
+  <si>
+    <t>주식회사국성</t>
+  </si>
+  <si>
+    <t>김효순</t>
+  </si>
+  <si>
+    <t>062-524-4223</t>
+  </si>
+  <si>
+    <t>시엠 주식회사</t>
+  </si>
+  <si>
+    <t>김혜연</t>
+  </si>
+  <si>
+    <t>041-665-3008</t>
+  </si>
+  <si>
+    <t>(주)케이디텍</t>
+  </si>
+  <si>
+    <t>김남기</t>
+  </si>
+  <si>
+    <t>02-741-3378</t>
+  </si>
+  <si>
+    <t>주식회사부산환경케어</t>
+  </si>
+  <si>
+    <t>이기호</t>
+  </si>
+  <si>
+    <t>051-807-4035</t>
+  </si>
+  <si>
+    <t>에스케이인포섹(주)</t>
+  </si>
+  <si>
+    <t>02-3485-9646</t>
+  </si>
+  <si>
+    <t>에스케이인포섹주)</t>
+  </si>
+  <si>
+    <t>02-3485-0763</t>
+  </si>
+  <si>
+    <t>02-9485-9646</t>
+  </si>
+  <si>
+    <t>(주)늘푸른코리아</t>
+  </si>
+  <si>
+    <t>이옥순</t>
+  </si>
+  <si>
+    <t>031-675-7202</t>
+  </si>
+  <si>
+    <t>주식회사 코아서브</t>
+  </si>
+  <si>
+    <t>민광기,한연주</t>
+  </si>
+  <si>
+    <t>주)유청시스템</t>
+  </si>
+  <si>
+    <t>강원주</t>
+  </si>
+  <si>
+    <t>02-2202-8755</t>
+  </si>
+  <si>
+    <t>(주)에이비씨서비스</t>
+  </si>
+  <si>
+    <t>일호개발(주)</t>
+  </si>
+  <si>
+    <t>이경직</t>
+  </si>
+  <si>
+    <t>031-985-0562</t>
+  </si>
+  <si>
+    <t>(주)케이에스드림</t>
+  </si>
+  <si>
+    <t>김남수</t>
+  </si>
+  <si>
+    <t>031-900-7288</t>
+  </si>
+  <si>
+    <t>울산항만관리(주)</t>
+  </si>
+  <si>
+    <t>김기현</t>
+  </si>
+  <si>
+    <t>052-228-5920</t>
+  </si>
+  <si>
+    <t>녹색솔루션</t>
+  </si>
+  <si>
+    <t>양회성</t>
+  </si>
+  <si>
+    <t>062-528-1999</t>
+  </si>
+  <si>
+    <t>동화지엠 주식회사</t>
+  </si>
+  <si>
+    <t>최은영</t>
+  </si>
+  <si>
+    <t>02-517-1447</t>
+  </si>
+  <si>
+    <t>김미숙</t>
+  </si>
+  <si>
+    <t>02-595-5915</t>
+  </si>
+  <si>
+    <t>주식회사 성원오에스</t>
+  </si>
+  <si>
+    <t>이재만</t>
+  </si>
+  <si>
+    <t>052-258-3737</t>
+  </si>
+  <si>
+    <t>(주)대하솔루션</t>
+  </si>
+  <si>
+    <t>민동옥</t>
+  </si>
+  <si>
+    <t>010-2799-8030</t>
+  </si>
+  <si>
+    <t>(주)윌앤비전</t>
+  </si>
+  <si>
+    <t>하봉수</t>
+  </si>
+  <si>
+    <t>02-6943-8253</t>
+  </si>
+  <si>
+    <t>(유)무진기업</t>
+  </si>
+  <si>
+    <t>심상욱,이선화</t>
+  </si>
+  <si>
+    <t>042-625-1799</t>
+  </si>
+  <si>
+    <t>케이포콤(주)</t>
+  </si>
+  <si>
+    <t>이정순</t>
+  </si>
+  <si>
+    <t>02-2274-0112</t>
+  </si>
+  <si>
+    <t>강원남부주민(주)</t>
+  </si>
+  <si>
+    <t>김기수</t>
+  </si>
+  <si>
+    <t>033-591-7771</t>
+  </si>
+  <si>
+    <t>(주)우리종합관리</t>
+  </si>
+  <si>
+    <t>최재환</t>
+  </si>
+  <si>
+    <t>052-222-0823</t>
+  </si>
+  <si>
+    <t>세계안전기업(주)</t>
+  </si>
+  <si>
+    <t>양길만외1명</t>
+  </si>
+  <si>
+    <t>02-783-7309</t>
+  </si>
+  <si>
+    <t>주식회사 다울시스템</t>
+  </si>
+  <si>
+    <t>최인혜</t>
+  </si>
+  <si>
+    <t>031-793-4236</t>
+  </si>
+  <si>
+    <t>바른시스템</t>
+  </si>
+  <si>
+    <t>이상구</t>
+  </si>
+  <si>
+    <t>031-262-8886</t>
+  </si>
+  <si>
+    <t>주식회사 재인지엔에스</t>
+  </si>
+  <si>
+    <t>최승삼</t>
+  </si>
+  <si>
+    <t>02-3476-6536</t>
+  </si>
+  <si>
+    <t>대호산업관리 주식회사</t>
+  </si>
+  <si>
+    <t>이병천</t>
+  </si>
+  <si>
+    <t>053-556-7799</t>
+  </si>
+  <si>
+    <t>유한회사성지기업</t>
+  </si>
+  <si>
+    <t>김동수</t>
+  </si>
+  <si>
+    <t>010-7159-6415</t>
+  </si>
+  <si>
+    <t>바른시스템주식회사</t>
+  </si>
+  <si>
+    <t>무릉아이엔지(주)</t>
+  </si>
+  <si>
+    <t>백기순</t>
+  </si>
+  <si>
+    <t>062-653-7151</t>
+  </si>
+  <si>
+    <t>진성관리(주)</t>
+  </si>
+  <si>
+    <t>김주현</t>
+  </si>
+  <si>
+    <t>055-384-5502</t>
+  </si>
+  <si>
+    <t>(주)에스지컴퍼니시스템</t>
+  </si>
+  <si>
+    <t>장민수</t>
+  </si>
+  <si>
+    <t>010-8871-4989</t>
+  </si>
+  <si>
+    <t>(유)쉐필드</t>
+  </si>
+  <si>
+    <t>박성윤, 문지환</t>
+  </si>
+  <si>
+    <t>070-7593-2355</t>
+  </si>
+  <si>
+    <t>한화호텔앤드리조트(주)</t>
+  </si>
+  <si>
+    <t>문석</t>
+  </si>
+  <si>
+    <t>02-789-5605</t>
+  </si>
+  <si>
+    <t>주식회사 가온엠에스</t>
+  </si>
+  <si>
+    <t>(주)태광에스티엠</t>
+  </si>
+  <si>
+    <t>김태수</t>
+  </si>
+  <si>
+    <t>02-553-9100</t>
+  </si>
+  <si>
+    <t>(주)에이디디보안환경관리단</t>
+  </si>
+  <si>
+    <t>최재완</t>
+  </si>
+  <si>
+    <t>042-607-6958</t>
+  </si>
+  <si>
+    <t>(주)명성기업</t>
+  </si>
+  <si>
+    <t>박종수</t>
+  </si>
+  <si>
+    <t>054-473-3379</t>
+  </si>
+  <si>
+    <t>상명이엔에스(주)</t>
+  </si>
+  <si>
+    <t>성정헌</t>
+  </si>
+  <si>
+    <t>02-2243-1366</t>
+  </si>
+  <si>
+    <t>(유)푸른환경</t>
+  </si>
+  <si>
+    <t>황인두</t>
+  </si>
+  <si>
+    <t>063-283-6355</t>
+  </si>
+  <si>
+    <t>(주)태경지엔씨</t>
+  </si>
+  <si>
+    <t>천유찬</t>
+  </si>
+  <si>
+    <t>055-761-1772</t>
+  </si>
+  <si>
+    <t>(주)화이트시스템</t>
+  </si>
+  <si>
+    <t>윤지연</t>
+  </si>
+  <si>
+    <t>02-428-8881</t>
+  </si>
+  <si>
+    <t>하나관리주식회사</t>
+  </si>
+  <si>
+    <t>051-529-9993</t>
+  </si>
+  <si>
+    <t>주)인맥</t>
+  </si>
+  <si>
+    <t>곽상민</t>
+  </si>
+  <si>
+    <t>061-434-8585</t>
+  </si>
+  <si>
+    <t>주식회사 아이엔</t>
+  </si>
+  <si>
+    <t>김훈희</t>
+  </si>
+  <si>
+    <t>070-4821-3212</t>
+  </si>
+  <si>
+    <t>길랜드주식회사</t>
+  </si>
+  <si>
+    <t>장태문</t>
+  </si>
+  <si>
+    <t>032-426-1122</t>
+  </si>
+  <si>
+    <t>주식회사 거목시스템(GM system Co.,Ltd)</t>
+  </si>
+  <si>
+    <t>김현미</t>
+  </si>
+  <si>
+    <t>053-654-3400</t>
+  </si>
+  <si>
+    <t>성원산업개발(주)</t>
+  </si>
+  <si>
+    <t>김병호</t>
+  </si>
+  <si>
+    <t>062-384-0515</t>
+  </si>
+  <si>
+    <t>유엔잡 주식회사</t>
+  </si>
+  <si>
+    <t>김석승</t>
+  </si>
+  <si>
+    <t>02-3461-0834</t>
+  </si>
+  <si>
+    <t>공영기업(주)</t>
+  </si>
+  <si>
+    <t>이흥주</t>
+  </si>
+  <si>
+    <t>042-932-3286</t>
+  </si>
+  <si>
+    <t>(주)푸른종합주택관리</t>
+  </si>
+  <si>
+    <t>이순자</t>
+  </si>
+  <si>
+    <t>032-328-8182</t>
+  </si>
+  <si>
+    <t>(주)비젼</t>
+  </si>
+  <si>
+    <t>곽말희</t>
+  </si>
+  <si>
+    <t>061-285-9210</t>
+  </si>
+  <si>
+    <t>태건조경건설주식회사</t>
+  </si>
+  <si>
+    <t>장봉</t>
+  </si>
+  <si>
+    <t>031-677-4984</t>
+  </si>
+  <si>
+    <t>대경기업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -72,10 +2067,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -390,13 +2386,4275 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31BF462D-7FA8-41BA-AFCA-9C4DB815E5A2}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F251"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="6" width="17.3984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A2">
+        <v>2069</v>
+      </c>
+      <c r="B2" t="s">
+        <v>660</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>2070</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>2071</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>2072</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>2073</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <v>2074</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <v>2075</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A9">
+        <v>2076</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A10">
+        <v>2077</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A11">
+        <v>2078</v>
+      </c>
+      <c r="B11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A12">
+        <v>2079</v>
+      </c>
+      <c r="B12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A13">
+        <v>2080</v>
+      </c>
+      <c r="B13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A14">
+        <v>2081</v>
+      </c>
+      <c r="B14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A15">
+        <v>2082</v>
+      </c>
+      <c r="B15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A16">
+        <v>2083</v>
+      </c>
+      <c r="B16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A17">
+        <v>2084</v>
+      </c>
+      <c r="B17" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A18">
+        <v>2085</v>
+      </c>
+      <c r="B18" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A19">
+        <v>2086</v>
+      </c>
+      <c r="B19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19" t="s">
+        <v>56</v>
+      </c>
+      <c r="E19" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A20">
+        <v>2087</v>
+      </c>
+      <c r="B20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A21">
+        <v>2088</v>
+      </c>
+      <c r="B21" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21" t="s">
+        <v>61</v>
+      </c>
+      <c r="D21" t="s">
+        <v>42</v>
+      </c>
+      <c r="E21" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A22">
+        <v>2089</v>
+      </c>
+      <c r="B22" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22" t="s">
+        <v>64</v>
+      </c>
+      <c r="D22" t="s">
+        <v>65</v>
+      </c>
+      <c r="E22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A23">
+        <v>2090</v>
+      </c>
+      <c r="B23" t="s">
+        <v>60</v>
+      </c>
+      <c r="C23" t="s">
+        <v>61</v>
+      </c>
+      <c r="D23" t="s">
+        <v>42</v>
+      </c>
+      <c r="E23" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A24">
+        <v>2091</v>
+      </c>
+      <c r="B24" t="s">
+        <v>67</v>
+      </c>
+      <c r="C24" t="s">
+        <v>68</v>
+      </c>
+      <c r="D24" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A25">
+        <v>2092</v>
+      </c>
+      <c r="B25" t="s">
+        <v>70</v>
+      </c>
+      <c r="C25" t="s">
+        <v>71</v>
+      </c>
+      <c r="D25" t="s">
+        <v>56</v>
+      </c>
+      <c r="E25" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A26">
+        <v>2093</v>
+      </c>
+      <c r="B26" t="s">
+        <v>73</v>
+      </c>
+      <c r="C26" t="s">
+        <v>74</v>
+      </c>
+      <c r="D26" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A27">
+        <v>2094</v>
+      </c>
+      <c r="B27" t="s">
+        <v>76</v>
+      </c>
+      <c r="C27" t="s">
+        <v>77</v>
+      </c>
+      <c r="D27" t="s">
+        <v>78</v>
+      </c>
+      <c r="E27" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A28">
+        <v>2095</v>
+      </c>
+      <c r="B28" t="s">
+        <v>80</v>
+      </c>
+      <c r="C28" t="s">
+        <v>81</v>
+      </c>
+      <c r="D28" t="s">
+        <v>15</v>
+      </c>
+      <c r="E28" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A29">
+        <v>2096</v>
+      </c>
+      <c r="B29" t="s">
+        <v>83</v>
+      </c>
+      <c r="C29" t="s">
+        <v>84</v>
+      </c>
+      <c r="D29" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A30">
+        <v>2097</v>
+      </c>
+      <c r="B30" t="s">
+        <v>86</v>
+      </c>
+      <c r="C30" t="s">
+        <v>87</v>
+      </c>
+      <c r="D30" t="s">
+        <v>42</v>
+      </c>
+      <c r="E30" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A31">
+        <v>2098</v>
+      </c>
+      <c r="B31" t="s">
+        <v>89</v>
+      </c>
+      <c r="C31" t="s">
+        <v>89</v>
+      </c>
+      <c r="D31" t="s">
+        <v>19</v>
+      </c>
+      <c r="E31" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A32">
+        <v>2099</v>
+      </c>
+      <c r="B32" t="s">
+        <v>91</v>
+      </c>
+      <c r="C32" t="s">
+        <v>81</v>
+      </c>
+      <c r="D32" t="s">
+        <v>15</v>
+      </c>
+      <c r="E32" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A33">
+        <v>2100</v>
+      </c>
+      <c r="B33" t="s">
+        <v>93</v>
+      </c>
+      <c r="C33" t="s">
+        <v>94</v>
+      </c>
+      <c r="D33" t="s">
+        <v>11</v>
+      </c>
+      <c r="E33" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A34">
+        <v>2101</v>
+      </c>
+      <c r="B34" t="s">
+        <v>96</v>
+      </c>
+      <c r="C34" t="s">
+        <v>97</v>
+      </c>
+      <c r="D34" t="s">
+        <v>65</v>
+      </c>
+      <c r="E34" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A35">
+        <v>2102</v>
+      </c>
+      <c r="B35" t="s">
+        <v>98</v>
+      </c>
+      <c r="C35" t="s">
+        <v>99</v>
+      </c>
+      <c r="D35" t="s">
+        <v>49</v>
+      </c>
+      <c r="E35" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A36">
+        <v>2103</v>
+      </c>
+      <c r="B36" t="s">
+        <v>101</v>
+      </c>
+      <c r="C36" t="s">
+        <v>102</v>
+      </c>
+      <c r="D36" t="s">
+        <v>15</v>
+      </c>
+      <c r="E36" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A37">
+        <v>2104</v>
+      </c>
+      <c r="B37" t="s">
+        <v>104</v>
+      </c>
+      <c r="C37" t="s">
+        <v>105</v>
+      </c>
+      <c r="D37" t="s">
+        <v>11</v>
+      </c>
+      <c r="E37" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A38">
+        <v>2105</v>
+      </c>
+      <c r="B38" t="s">
+        <v>107</v>
+      </c>
+      <c r="C38" t="s">
+        <v>108</v>
+      </c>
+      <c r="D38" t="s">
+        <v>11</v>
+      </c>
+      <c r="E38" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A39">
+        <v>2106</v>
+      </c>
+      <c r="B39" t="s">
+        <v>110</v>
+      </c>
+      <c r="C39" t="s">
+        <v>111</v>
+      </c>
+      <c r="D39" t="s">
+        <v>42</v>
+      </c>
+      <c r="E39" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A40">
+        <v>2107</v>
+      </c>
+      <c r="B40" t="s">
+        <v>113</v>
+      </c>
+      <c r="C40" t="s">
+        <v>114</v>
+      </c>
+      <c r="D40" t="s">
+        <v>7</v>
+      </c>
+      <c r="E40" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A41">
+        <v>2108</v>
+      </c>
+      <c r="B41" t="s">
+        <v>116</v>
+      </c>
+      <c r="C41" t="s">
+        <v>117</v>
+      </c>
+      <c r="D41" t="s">
+        <v>27</v>
+      </c>
+      <c r="E41" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A42">
+        <v>2109</v>
+      </c>
+      <c r="B42" t="s">
+        <v>119</v>
+      </c>
+      <c r="C42" t="s">
+        <v>120</v>
+      </c>
+      <c r="D42" t="s">
+        <v>11</v>
+      </c>
+      <c r="E42" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A43">
+        <v>2110</v>
+      </c>
+      <c r="B43" t="s">
+        <v>122</v>
+      </c>
+      <c r="C43" t="s">
+        <v>123</v>
+      </c>
+      <c r="D43" t="s">
+        <v>15</v>
+      </c>
+      <c r="E43" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A44">
+        <v>2111</v>
+      </c>
+      <c r="B44" t="s">
+        <v>125</v>
+      </c>
+      <c r="C44" t="s">
+        <v>126</v>
+      </c>
+      <c r="D44" t="s">
+        <v>15</v>
+      </c>
+      <c r="E44" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A45">
+        <v>2112</v>
+      </c>
+      <c r="B45" t="s">
+        <v>128</v>
+      </c>
+      <c r="C45" t="s">
+        <v>129</v>
+      </c>
+      <c r="D45" t="s">
+        <v>19</v>
+      </c>
+      <c r="E45" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A46">
+        <v>2113</v>
+      </c>
+      <c r="B46" t="s">
+        <v>131</v>
+      </c>
+      <c r="C46" t="s">
+        <v>132</v>
+      </c>
+      <c r="D46" t="s">
+        <v>133</v>
+      </c>
+      <c r="E46" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A47">
+        <v>2114</v>
+      </c>
+      <c r="B47" t="s">
+        <v>135</v>
+      </c>
+      <c r="C47" t="s">
+        <v>136</v>
+      </c>
+      <c r="D47" t="s">
+        <v>11</v>
+      </c>
+      <c r="E47" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A48">
+        <v>2115</v>
+      </c>
+      <c r="B48" t="s">
+        <v>138</v>
+      </c>
+      <c r="C48" t="s">
+        <v>139</v>
+      </c>
+      <c r="D48" t="s">
+        <v>65</v>
+      </c>
+      <c r="E48" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A49">
+        <v>2116</v>
+      </c>
+      <c r="B49" t="s">
+        <v>141</v>
+      </c>
+      <c r="C49" t="s">
+        <v>142</v>
+      </c>
+      <c r="D49" t="s">
+        <v>42</v>
+      </c>
+      <c r="E49" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A50">
+        <v>2117</v>
+      </c>
+      <c r="B50" t="s">
+        <v>144</v>
+      </c>
+      <c r="C50" t="s">
+        <v>145</v>
+      </c>
+      <c r="D50" t="s">
+        <v>11</v>
+      </c>
+      <c r="E50" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A51">
+        <v>2118</v>
+      </c>
+      <c r="B51" t="s">
+        <v>147</v>
+      </c>
+      <c r="C51" t="s">
+        <v>148</v>
+      </c>
+      <c r="D51" t="s">
+        <v>149</v>
+      </c>
+      <c r="E51" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A52">
+        <v>2119</v>
+      </c>
+      <c r="B52" t="s">
+        <v>151</v>
+      </c>
+      <c r="C52" t="s">
+        <v>152</v>
+      </c>
+      <c r="D52" t="s">
+        <v>11</v>
+      </c>
+      <c r="E52" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A53">
+        <v>2120</v>
+      </c>
+      <c r="B53" t="s">
+        <v>154</v>
+      </c>
+      <c r="C53" t="s">
+        <v>155</v>
+      </c>
+      <c r="D53" t="s">
+        <v>11</v>
+      </c>
+      <c r="E53" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A54">
+        <v>2121</v>
+      </c>
+      <c r="B54" t="s">
+        <v>157</v>
+      </c>
+      <c r="C54" t="s">
+        <v>158</v>
+      </c>
+      <c r="D54" t="s">
+        <v>11</v>
+      </c>
+      <c r="E54" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A55">
+        <v>2122</v>
+      </c>
+      <c r="B55" t="s">
+        <v>159</v>
+      </c>
+      <c r="C55" t="s">
+        <v>160</v>
+      </c>
+      <c r="D55" t="s">
+        <v>19</v>
+      </c>
+      <c r="E55" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A56">
+        <v>2123</v>
+      </c>
+      <c r="B56" t="s">
+        <v>162</v>
+      </c>
+      <c r="C56" t="s">
+        <v>163</v>
+      </c>
+      <c r="D56" t="s">
+        <v>42</v>
+      </c>
+      <c r="E56" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A57">
+        <v>2124</v>
+      </c>
+      <c r="B57" t="s">
+        <v>165</v>
+      </c>
+      <c r="C57" t="s">
+        <v>166</v>
+      </c>
+      <c r="D57" t="s">
+        <v>15</v>
+      </c>
+      <c r="E57" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A58">
+        <v>2125</v>
+      </c>
+      <c r="B58" t="s">
+        <v>168</v>
+      </c>
+      <c r="C58" t="s">
+        <v>169</v>
+      </c>
+      <c r="D58" t="s">
+        <v>15</v>
+      </c>
+      <c r="E58" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A59">
+        <v>2126</v>
+      </c>
+      <c r="B59" t="s">
+        <v>171</v>
+      </c>
+      <c r="C59" t="s">
+        <v>172</v>
+      </c>
+      <c r="D59" t="s">
+        <v>49</v>
+      </c>
+      <c r="E59" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A60">
+        <v>2127</v>
+      </c>
+      <c r="B60" t="s">
+        <v>174</v>
+      </c>
+      <c r="C60" t="s">
+        <v>175</v>
+      </c>
+      <c r="D60" t="s">
+        <v>19</v>
+      </c>
+      <c r="E60" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A61">
+        <v>2128</v>
+      </c>
+      <c r="B61" t="s">
+        <v>177</v>
+      </c>
+      <c r="C61" t="s">
+        <v>178</v>
+      </c>
+      <c r="D61" t="s">
+        <v>11</v>
+      </c>
+      <c r="E61" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A62">
+        <v>2129</v>
+      </c>
+      <c r="B62" t="s">
+        <v>162</v>
+      </c>
+      <c r="C62" t="s">
+        <v>163</v>
+      </c>
+      <c r="D62" t="s">
+        <v>42</v>
+      </c>
+      <c r="E62" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A63">
+        <v>2130</v>
+      </c>
+      <c r="B63" t="s">
+        <v>180</v>
+      </c>
+      <c r="C63" t="s">
+        <v>181</v>
+      </c>
+      <c r="D63" t="s">
+        <v>11</v>
+      </c>
+      <c r="E63" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A64">
+        <v>2131</v>
+      </c>
+      <c r="B64" t="s">
+        <v>183</v>
+      </c>
+      <c r="C64" t="s">
+        <v>184</v>
+      </c>
+      <c r="D64" t="s">
+        <v>133</v>
+      </c>
+      <c r="E64" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A65">
+        <v>2132</v>
+      </c>
+      <c r="B65" t="s">
+        <v>185</v>
+      </c>
+      <c r="C65" t="s">
+        <v>186</v>
+      </c>
+      <c r="D65" t="s">
+        <v>56</v>
+      </c>
+      <c r="E65" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A66">
+        <v>2133</v>
+      </c>
+      <c r="B66" t="s">
+        <v>188</v>
+      </c>
+      <c r="C66" t="s">
+        <v>189</v>
+      </c>
+      <c r="D66" t="s">
+        <v>15</v>
+      </c>
+      <c r="E66" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A67">
+        <v>2134</v>
+      </c>
+      <c r="B67" t="s">
+        <v>191</v>
+      </c>
+      <c r="C67" t="s">
+        <v>192</v>
+      </c>
+      <c r="D67" t="s">
+        <v>42</v>
+      </c>
+      <c r="E67" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A68">
+        <v>2135</v>
+      </c>
+      <c r="B68" t="s">
+        <v>47</v>
+      </c>
+      <c r="C68" t="s">
+        <v>194</v>
+      </c>
+      <c r="D68" t="s">
+        <v>49</v>
+      </c>
+      <c r="E68" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A69">
+        <v>2136</v>
+      </c>
+      <c r="B69" t="s">
+        <v>196</v>
+      </c>
+      <c r="C69" t="s">
+        <v>197</v>
+      </c>
+      <c r="D69" t="s">
+        <v>11</v>
+      </c>
+      <c r="E69" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A70">
+        <v>2137</v>
+      </c>
+      <c r="B70" t="s">
+        <v>199</v>
+      </c>
+      <c r="C70" t="s">
+        <v>200</v>
+      </c>
+      <c r="D70" t="s">
+        <v>149</v>
+      </c>
+      <c r="E70" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A71">
+        <v>2138</v>
+      </c>
+      <c r="B71" t="s">
+        <v>202</v>
+      </c>
+      <c r="C71" t="s">
+        <v>203</v>
+      </c>
+      <c r="D71" t="s">
+        <v>15</v>
+      </c>
+      <c r="E71" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A72">
+        <v>2139</v>
+      </c>
+      <c r="B72" t="s">
+        <v>205</v>
+      </c>
+      <c r="C72" t="s">
+        <v>206</v>
+      </c>
+      <c r="D72" t="s">
+        <v>56</v>
+      </c>
+      <c r="E72" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A73">
+        <v>2140</v>
+      </c>
+      <c r="B73" t="s">
+        <v>205</v>
+      </c>
+      <c r="C73" t="s">
+        <v>206</v>
+      </c>
+      <c r="D73" t="s">
+        <v>56</v>
+      </c>
+      <c r="E73" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A74">
+        <v>2141</v>
+      </c>
+      <c r="B74" t="s">
+        <v>205</v>
+      </c>
+      <c r="C74" t="s">
+        <v>206</v>
+      </c>
+      <c r="D74" t="s">
+        <v>56</v>
+      </c>
+      <c r="E74" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A75">
+        <v>2142</v>
+      </c>
+      <c r="B75" t="s">
+        <v>209</v>
+      </c>
+      <c r="C75" t="s">
+        <v>210</v>
+      </c>
+      <c r="D75" t="s">
+        <v>42</v>
+      </c>
+      <c r="E75" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A76">
+        <v>2143</v>
+      </c>
+      <c r="B76" t="s">
+        <v>212</v>
+      </c>
+      <c r="C76" t="s">
+        <v>213</v>
+      </c>
+      <c r="D76" t="s">
+        <v>15</v>
+      </c>
+      <c r="E76" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A77">
+        <v>2144</v>
+      </c>
+      <c r="B77" t="s">
+        <v>215</v>
+      </c>
+      <c r="C77" t="s">
+        <v>216</v>
+      </c>
+      <c r="D77" t="s">
+        <v>27</v>
+      </c>
+      <c r="E77" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A78">
+        <v>2145</v>
+      </c>
+      <c r="B78" t="s">
+        <v>218</v>
+      </c>
+      <c r="C78" t="s">
+        <v>219</v>
+      </c>
+      <c r="D78" t="s">
+        <v>42</v>
+      </c>
+      <c r="E78" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A79">
+        <v>2146</v>
+      </c>
+      <c r="B79" t="s">
+        <v>221</v>
+      </c>
+      <c r="C79" t="s">
+        <v>222</v>
+      </c>
+      <c r="D79" t="s">
+        <v>56</v>
+      </c>
+      <c r="E79" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A80">
+        <v>2147</v>
+      </c>
+      <c r="B80" t="s">
+        <v>47</v>
+      </c>
+      <c r="C80" t="s">
+        <v>224</v>
+      </c>
+      <c r="D80" t="s">
+        <v>49</v>
+      </c>
+      <c r="E80" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A81">
+        <v>2148</v>
+      </c>
+      <c r="B81" t="s">
+        <v>225</v>
+      </c>
+      <c r="C81" t="s">
+        <v>226</v>
+      </c>
+      <c r="D81" t="s">
+        <v>11</v>
+      </c>
+      <c r="E81" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A82">
+        <v>2149</v>
+      </c>
+      <c r="B82" t="s">
+        <v>228</v>
+      </c>
+      <c r="C82" t="s">
+        <v>229</v>
+      </c>
+      <c r="D82" t="s">
+        <v>11</v>
+      </c>
+      <c r="E82" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A83">
+        <v>2150</v>
+      </c>
+      <c r="B83" t="s">
+        <v>231</v>
+      </c>
+      <c r="C83" t="s">
+        <v>232</v>
+      </c>
+      <c r="D83" t="s">
+        <v>11</v>
+      </c>
+      <c r="E83" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A84">
+        <v>2151</v>
+      </c>
+      <c r="B84" t="s">
+        <v>234</v>
+      </c>
+      <c r="C84" t="s">
+        <v>235</v>
+      </c>
+      <c r="D84" t="s">
+        <v>15</v>
+      </c>
+      <c r="E84" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A85">
+        <v>2152</v>
+      </c>
+      <c r="B85" t="s">
+        <v>237</v>
+      </c>
+      <c r="C85" t="s">
+        <v>238</v>
+      </c>
+      <c r="D85" t="s">
+        <v>15</v>
+      </c>
+      <c r="E85" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A86">
+        <v>2153</v>
+      </c>
+      <c r="B86" t="s">
+        <v>240</v>
+      </c>
+      <c r="C86" t="s">
+        <v>241</v>
+      </c>
+      <c r="D86" t="s">
+        <v>11</v>
+      </c>
+      <c r="E86" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A87">
+        <v>2154</v>
+      </c>
+      <c r="B87" t="s">
+        <v>243</v>
+      </c>
+      <c r="C87" t="s">
+        <v>244</v>
+      </c>
+      <c r="D87" t="s">
+        <v>42</v>
+      </c>
+      <c r="E87" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A88">
+        <v>2155</v>
+      </c>
+      <c r="B88" t="s">
+        <v>245</v>
+      </c>
+      <c r="C88" t="s">
+        <v>246</v>
+      </c>
+      <c r="D88" t="s">
+        <v>11</v>
+      </c>
+      <c r="E88" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A89">
+        <v>2156</v>
+      </c>
+      <c r="B89" t="s">
+        <v>248</v>
+      </c>
+      <c r="C89" t="s">
+        <v>249</v>
+      </c>
+      <c r="D89" t="s">
+        <v>19</v>
+      </c>
+      <c r="E89" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A90">
+        <v>2157</v>
+      </c>
+      <c r="B90" t="s">
+        <v>250</v>
+      </c>
+      <c r="C90" t="s">
+        <v>251</v>
+      </c>
+      <c r="D90" t="s">
+        <v>133</v>
+      </c>
+      <c r="E90" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A91">
+        <v>2158</v>
+      </c>
+      <c r="B91" t="s">
+        <v>252</v>
+      </c>
+      <c r="C91" t="s">
+        <v>253</v>
+      </c>
+      <c r="D91" t="s">
+        <v>15</v>
+      </c>
+      <c r="E91" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A92">
+        <v>2159</v>
+      </c>
+      <c r="B92" t="s">
+        <v>255</v>
+      </c>
+      <c r="C92" t="s">
+        <v>256</v>
+      </c>
+      <c r="D92" t="s">
+        <v>11</v>
+      </c>
+      <c r="E92" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A93">
+        <v>2160</v>
+      </c>
+      <c r="B93" t="s">
+        <v>258</v>
+      </c>
+      <c r="C93" t="s">
+        <v>259</v>
+      </c>
+      <c r="D93" t="s">
+        <v>15</v>
+      </c>
+      <c r="E93" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A94">
+        <v>2161</v>
+      </c>
+      <c r="B94" t="s">
+        <v>261</v>
+      </c>
+      <c r="C94" t="s">
+        <v>262</v>
+      </c>
+      <c r="D94" t="s">
+        <v>263</v>
+      </c>
+      <c r="E94" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A95">
+        <v>2162</v>
+      </c>
+      <c r="B95" t="s">
+        <v>265</v>
+      </c>
+      <c r="C95" t="s">
+        <v>266</v>
+      </c>
+      <c r="D95" t="s">
+        <v>15</v>
+      </c>
+      <c r="E95" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A96">
+        <v>2163</v>
+      </c>
+      <c r="B96" t="s">
+        <v>268</v>
+      </c>
+      <c r="C96" t="s">
+        <v>269</v>
+      </c>
+      <c r="D96" t="s">
+        <v>15</v>
+      </c>
+      <c r="E96" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A97">
+        <v>2164</v>
+      </c>
+      <c r="B97" t="s">
+        <v>271</v>
+      </c>
+      <c r="C97" t="s">
+        <v>272</v>
+      </c>
+      <c r="D97" t="s">
+        <v>65</v>
+      </c>
+      <c r="E97" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A98">
+        <v>2165</v>
+      </c>
+      <c r="B98" t="s">
+        <v>274</v>
+      </c>
+      <c r="C98" t="s">
+        <v>275</v>
+      </c>
+      <c r="D98" t="s">
+        <v>27</v>
+      </c>
+      <c r="E98" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A99">
+        <v>2166</v>
+      </c>
+      <c r="B99" t="s">
+        <v>277</v>
+      </c>
+      <c r="C99" t="s">
+        <v>278</v>
+      </c>
+      <c r="D99" t="s">
+        <v>15</v>
+      </c>
+      <c r="E99" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A100">
+        <v>2167</v>
+      </c>
+      <c r="B100" t="s">
+        <v>280</v>
+      </c>
+      <c r="C100" t="s">
+        <v>281</v>
+      </c>
+      <c r="D100" t="s">
+        <v>11</v>
+      </c>
+      <c r="E100" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A101">
+        <v>2168</v>
+      </c>
+      <c r="B101" t="s">
+        <v>283</v>
+      </c>
+      <c r="C101" t="s">
+        <v>284</v>
+      </c>
+      <c r="D101" t="s">
+        <v>15</v>
+      </c>
+      <c r="E101" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A102">
+        <v>2169</v>
+      </c>
+      <c r="B102" t="s">
+        <v>286</v>
+      </c>
+      <c r="C102" t="s">
+        <v>287</v>
+      </c>
+      <c r="D102" t="s">
+        <v>56</v>
+      </c>
+      <c r="E102" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A103">
+        <v>2170</v>
+      </c>
+      <c r="B103" t="s">
+        <v>289</v>
+      </c>
+      <c r="C103" t="s">
+        <v>290</v>
+      </c>
+      <c r="D103" t="s">
+        <v>15</v>
+      </c>
+      <c r="E103" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A104">
+        <v>2171</v>
+      </c>
+      <c r="B104" t="s">
+        <v>291</v>
+      </c>
+      <c r="C104" t="s">
+        <v>292</v>
+      </c>
+      <c r="D104" t="s">
+        <v>149</v>
+      </c>
+      <c r="E104" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A105">
+        <v>2172</v>
+      </c>
+      <c r="B105" t="s">
+        <v>294</v>
+      </c>
+      <c r="C105" t="s">
+        <v>295</v>
+      </c>
+      <c r="D105" t="s">
+        <v>11</v>
+      </c>
+      <c r="E105" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A106">
+        <v>2173</v>
+      </c>
+      <c r="B106" t="s">
+        <v>297</v>
+      </c>
+      <c r="C106" t="s">
+        <v>298</v>
+      </c>
+      <c r="D106" t="s">
+        <v>15</v>
+      </c>
+      <c r="E106" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A107">
+        <v>2174</v>
+      </c>
+      <c r="B107" t="s">
+        <v>300</v>
+      </c>
+      <c r="C107" t="s">
+        <v>301</v>
+      </c>
+      <c r="D107" t="s">
+        <v>11</v>
+      </c>
+      <c r="E107" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A108">
+        <v>2175</v>
+      </c>
+      <c r="B108" t="s">
+        <v>303</v>
+      </c>
+      <c r="C108" t="s">
+        <v>304</v>
+      </c>
+      <c r="D108" t="s">
+        <v>11</v>
+      </c>
+      <c r="E108" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A109">
+        <v>2176</v>
+      </c>
+      <c r="B109" t="s">
+        <v>47</v>
+      </c>
+      <c r="C109" t="s">
+        <v>306</v>
+      </c>
+      <c r="D109" t="s">
+        <v>49</v>
+      </c>
+      <c r="E109" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A110">
+        <v>2177</v>
+      </c>
+      <c r="B110" t="s">
+        <v>268</v>
+      </c>
+      <c r="C110" t="s">
+        <v>269</v>
+      </c>
+      <c r="D110" t="s">
+        <v>15</v>
+      </c>
+      <c r="E110" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A111">
+        <v>2178</v>
+      </c>
+      <c r="B111" t="s">
+        <v>307</v>
+      </c>
+      <c r="C111" t="s">
+        <v>308</v>
+      </c>
+      <c r="D111" t="s">
+        <v>56</v>
+      </c>
+      <c r="E111" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A112">
+        <v>2179</v>
+      </c>
+      <c r="B112" t="s">
+        <v>310</v>
+      </c>
+      <c r="C112" t="s">
+        <v>311</v>
+      </c>
+      <c r="D112" t="s">
+        <v>15</v>
+      </c>
+      <c r="E112" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A113">
+        <v>2180</v>
+      </c>
+      <c r="B113" t="s">
+        <v>313</v>
+      </c>
+      <c r="C113" t="s">
+        <v>314</v>
+      </c>
+      <c r="D113" t="s">
+        <v>133</v>
+      </c>
+      <c r="E113" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A114">
+        <v>2181</v>
+      </c>
+      <c r="B114" t="s">
+        <v>316</v>
+      </c>
+      <c r="C114" t="s">
+        <v>317</v>
+      </c>
+      <c r="D114" t="s">
+        <v>263</v>
+      </c>
+      <c r="E114" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A115">
+        <v>2182</v>
+      </c>
+      <c r="B115" t="s">
+        <v>319</v>
+      </c>
+      <c r="C115" t="s">
+        <v>320</v>
+      </c>
+      <c r="D115" t="s">
+        <v>15</v>
+      </c>
+      <c r="E115" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A116">
+        <v>2183</v>
+      </c>
+      <c r="B116" t="s">
+        <v>322</v>
+      </c>
+      <c r="C116" t="s">
+        <v>323</v>
+      </c>
+      <c r="D116" t="s">
+        <v>11</v>
+      </c>
+      <c r="E116" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A117">
+        <v>2184</v>
+      </c>
+      <c r="B117" t="s">
+        <v>325</v>
+      </c>
+      <c r="C117" t="s">
+        <v>326</v>
+      </c>
+      <c r="D117" t="s">
+        <v>11</v>
+      </c>
+      <c r="E117" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A118">
+        <v>2185</v>
+      </c>
+      <c r="B118" t="s">
+        <v>328</v>
+      </c>
+      <c r="C118" t="s">
+        <v>329</v>
+      </c>
+      <c r="D118" t="s">
+        <v>11</v>
+      </c>
+      <c r="E118" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A119">
+        <v>2186</v>
+      </c>
+      <c r="B119" t="s">
+        <v>331</v>
+      </c>
+      <c r="C119" t="s">
+        <v>332</v>
+      </c>
+      <c r="D119" t="s">
+        <v>11</v>
+      </c>
+      <c r="E119" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A120">
+        <v>2187</v>
+      </c>
+      <c r="B120" t="s">
+        <v>334</v>
+      </c>
+      <c r="C120" t="s">
+        <v>335</v>
+      </c>
+      <c r="D120" t="s">
+        <v>27</v>
+      </c>
+      <c r="E120" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A121">
+        <v>2188</v>
+      </c>
+      <c r="B121" t="s">
+        <v>337</v>
+      </c>
+      <c r="C121" t="s">
+        <v>338</v>
+      </c>
+      <c r="D121" t="s">
+        <v>11</v>
+      </c>
+      <c r="E121" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A122">
+        <v>2189</v>
+      </c>
+      <c r="B122" t="s">
+        <v>340</v>
+      </c>
+      <c r="C122" t="s">
+        <v>341</v>
+      </c>
+      <c r="D122" t="s">
+        <v>11</v>
+      </c>
+      <c r="E122" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A123">
+        <v>2190</v>
+      </c>
+      <c r="B123" t="s">
+        <v>343</v>
+      </c>
+      <c r="C123" t="s">
+        <v>344</v>
+      </c>
+      <c r="D123" t="s">
+        <v>78</v>
+      </c>
+      <c r="E123" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A124">
+        <v>2191</v>
+      </c>
+      <c r="B124" t="s">
+        <v>346</v>
+      </c>
+      <c r="C124" t="s">
+        <v>347</v>
+      </c>
+      <c r="D124" t="s">
+        <v>49</v>
+      </c>
+      <c r="E124" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A125">
+        <v>2192</v>
+      </c>
+      <c r="B125" t="s">
+        <v>349</v>
+      </c>
+      <c r="C125" t="s">
+        <v>350</v>
+      </c>
+      <c r="D125" t="s">
+        <v>11</v>
+      </c>
+      <c r="E125" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A126">
+        <v>2193</v>
+      </c>
+      <c r="B126" t="s">
+        <v>352</v>
+      </c>
+      <c r="C126" t="s">
+        <v>353</v>
+      </c>
+      <c r="D126" t="s">
+        <v>354</v>
+      </c>
+      <c r="E126" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A127">
+        <v>2194</v>
+      </c>
+      <c r="B127" t="s">
+        <v>356</v>
+      </c>
+      <c r="C127" t="s">
+        <v>357</v>
+      </c>
+      <c r="D127" t="s">
+        <v>354</v>
+      </c>
+      <c r="E127" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A128">
+        <v>2195</v>
+      </c>
+      <c r="B128" t="s">
+        <v>359</v>
+      </c>
+      <c r="C128" t="s">
+        <v>360</v>
+      </c>
+      <c r="D128" t="s">
+        <v>15</v>
+      </c>
+      <c r="E128" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A129">
+        <v>2196</v>
+      </c>
+      <c r="B129" t="s">
+        <v>362</v>
+      </c>
+      <c r="C129" t="s">
+        <v>363</v>
+      </c>
+      <c r="D129" t="s">
+        <v>15</v>
+      </c>
+      <c r="E129" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A130">
+        <v>2197</v>
+      </c>
+      <c r="B130" t="s">
+        <v>365</v>
+      </c>
+      <c r="C130" t="s">
+        <v>366</v>
+      </c>
+      <c r="D130" t="s">
+        <v>11</v>
+      </c>
+      <c r="E130" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A131">
+        <v>2198</v>
+      </c>
+      <c r="B131" t="s">
+        <v>368</v>
+      </c>
+      <c r="C131" t="s">
+        <v>369</v>
+      </c>
+      <c r="D131" t="s">
+        <v>15</v>
+      </c>
+      <c r="E131" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A132">
+        <v>2199</v>
+      </c>
+      <c r="B132" t="s">
+        <v>371</v>
+      </c>
+      <c r="C132" t="s">
+        <v>369</v>
+      </c>
+      <c r="D132" t="s">
+        <v>15</v>
+      </c>
+      <c r="E132" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A133">
+        <v>2200</v>
+      </c>
+      <c r="B133" t="s">
+        <v>368</v>
+      </c>
+      <c r="C133" t="s">
+        <v>369</v>
+      </c>
+      <c r="D133" t="s">
+        <v>15</v>
+      </c>
+      <c r="E133" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A134">
+        <v>2201</v>
+      </c>
+      <c r="B134" t="s">
+        <v>372</v>
+      </c>
+      <c r="C134" t="s">
+        <v>373</v>
+      </c>
+      <c r="D134" t="s">
+        <v>11</v>
+      </c>
+      <c r="E134" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A135">
+        <v>2202</v>
+      </c>
+      <c r="B135" t="s">
+        <v>303</v>
+      </c>
+      <c r="C135" t="s">
+        <v>304</v>
+      </c>
+      <c r="D135" t="s">
+        <v>11</v>
+      </c>
+      <c r="E135" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A136">
+        <v>2203</v>
+      </c>
+      <c r="B136" t="s">
+        <v>303</v>
+      </c>
+      <c r="C136" t="s">
+        <v>304</v>
+      </c>
+      <c r="D136" t="s">
+        <v>11</v>
+      </c>
+      <c r="E136" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A137">
+        <v>2204</v>
+      </c>
+      <c r="B137" t="s">
+        <v>375</v>
+      </c>
+      <c r="C137" t="s">
+        <v>251</v>
+      </c>
+      <c r="D137" t="s">
+        <v>133</v>
+      </c>
+      <c r="E137" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A138">
+        <v>2205</v>
+      </c>
+      <c r="B138" t="s">
+        <v>377</v>
+      </c>
+      <c r="C138" t="s">
+        <v>378</v>
+      </c>
+      <c r="D138" t="s">
+        <v>11</v>
+      </c>
+      <c r="E138" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A139">
+        <v>2206</v>
+      </c>
+      <c r="B139" t="s">
+        <v>380</v>
+      </c>
+      <c r="C139" t="s">
+        <v>381</v>
+      </c>
+      <c r="D139" t="s">
+        <v>354</v>
+      </c>
+      <c r="E139" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A140">
+        <v>2207</v>
+      </c>
+      <c r="B140" t="s">
+        <v>383</v>
+      </c>
+      <c r="C140" t="s">
+        <v>384</v>
+      </c>
+      <c r="D140" t="s">
+        <v>15</v>
+      </c>
+      <c r="E140" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A141">
+        <v>2208</v>
+      </c>
+      <c r="B141" t="s">
+        <v>386</v>
+      </c>
+      <c r="C141" t="s">
+        <v>387</v>
+      </c>
+      <c r="D141" t="s">
+        <v>11</v>
+      </c>
+      <c r="E141" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A142">
+        <v>2209</v>
+      </c>
+      <c r="B142" t="s">
+        <v>389</v>
+      </c>
+      <c r="C142" t="s">
+        <v>390</v>
+      </c>
+      <c r="D142" t="s">
+        <v>27</v>
+      </c>
+      <c r="E142" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A143">
+        <v>2210</v>
+      </c>
+      <c r="B143" t="s">
+        <v>392</v>
+      </c>
+      <c r="C143" t="s">
+        <v>393</v>
+      </c>
+      <c r="D143" t="s">
+        <v>56</v>
+      </c>
+      <c r="E143" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A144">
+        <v>2211</v>
+      </c>
+      <c r="B144" t="s">
+        <v>395</v>
+      </c>
+      <c r="C144" t="s">
+        <v>360</v>
+      </c>
+      <c r="D144" t="s">
+        <v>15</v>
+      </c>
+      <c r="E144" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A145">
+        <v>2212</v>
+      </c>
+      <c r="B145" t="s">
+        <v>396</v>
+      </c>
+      <c r="C145" t="s">
+        <v>397</v>
+      </c>
+      <c r="D145" t="s">
+        <v>15</v>
+      </c>
+      <c r="E145" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A146">
+        <v>2213</v>
+      </c>
+      <c r="B146" t="s">
+        <v>399</v>
+      </c>
+      <c r="C146" t="s">
+        <v>400</v>
+      </c>
+      <c r="D146" t="s">
+        <v>11</v>
+      </c>
+      <c r="E146" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A147">
+        <v>2214</v>
+      </c>
+      <c r="B147" t="s">
+        <v>402</v>
+      </c>
+      <c r="C147" t="s">
+        <v>403</v>
+      </c>
+      <c r="D147" t="s">
+        <v>27</v>
+      </c>
+      <c r="E147" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A148">
+        <v>2215</v>
+      </c>
+      <c r="B148" t="s">
+        <v>405</v>
+      </c>
+      <c r="C148" t="s">
+        <v>406</v>
+      </c>
+      <c r="D148" t="s">
+        <v>15</v>
+      </c>
+      <c r="E148" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A149">
+        <v>2216</v>
+      </c>
+      <c r="B149" t="s">
+        <v>408</v>
+      </c>
+      <c r="C149" t="s">
+        <v>409</v>
+      </c>
+      <c r="D149" t="s">
+        <v>65</v>
+      </c>
+      <c r="E149" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A150">
+        <v>2217</v>
+      </c>
+      <c r="B150" t="s">
+        <v>411</v>
+      </c>
+      <c r="C150" t="s">
+        <v>412</v>
+      </c>
+      <c r="D150" t="s">
+        <v>15</v>
+      </c>
+      <c r="E150" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A151">
+        <v>2218</v>
+      </c>
+      <c r="B151" t="s">
+        <v>414</v>
+      </c>
+      <c r="C151" t="s">
+        <v>415</v>
+      </c>
+      <c r="D151" t="s">
+        <v>133</v>
+      </c>
+      <c r="E151" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A152">
+        <v>2219</v>
+      </c>
+      <c r="B152" t="s">
+        <v>417</v>
+      </c>
+      <c r="C152" t="s">
+        <v>418</v>
+      </c>
+      <c r="D152" t="s">
+        <v>7</v>
+      </c>
+      <c r="E152" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A153">
+        <v>2220</v>
+      </c>
+      <c r="B153" t="s">
+        <v>420</v>
+      </c>
+      <c r="C153" t="s">
+        <v>421</v>
+      </c>
+      <c r="D153" t="s">
+        <v>56</v>
+      </c>
+      <c r="E153" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A154">
+        <v>2221</v>
+      </c>
+      <c r="B154" t="s">
+        <v>420</v>
+      </c>
+      <c r="C154" t="s">
+        <v>421</v>
+      </c>
+      <c r="D154" t="s">
+        <v>56</v>
+      </c>
+      <c r="E154" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A155">
+        <v>2222</v>
+      </c>
+      <c r="B155" t="s">
+        <v>423</v>
+      </c>
+      <c r="C155" t="s">
+        <v>424</v>
+      </c>
+      <c r="D155" t="s">
+        <v>425</v>
+      </c>
+      <c r="E155" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A156">
+        <v>2223</v>
+      </c>
+      <c r="B156" t="s">
+        <v>427</v>
+      </c>
+      <c r="C156" t="s">
+        <v>428</v>
+      </c>
+      <c r="D156" t="s">
+        <v>11</v>
+      </c>
+      <c r="E156" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A157">
+        <v>2224</v>
+      </c>
+      <c r="B157" t="s">
+        <v>423</v>
+      </c>
+      <c r="C157" t="s">
+        <v>424</v>
+      </c>
+      <c r="D157" t="s">
+        <v>11</v>
+      </c>
+      <c r="E157" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A158">
+        <v>2225</v>
+      </c>
+      <c r="B158" t="s">
+        <v>430</v>
+      </c>
+      <c r="C158" t="s">
+        <v>431</v>
+      </c>
+      <c r="D158" t="s">
+        <v>15</v>
+      </c>
+      <c r="E158" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A159">
+        <v>2226</v>
+      </c>
+      <c r="B159" t="s">
+        <v>433</v>
+      </c>
+      <c r="C159" t="s">
+        <v>434</v>
+      </c>
+      <c r="D159" t="s">
+        <v>435</v>
+      </c>
+      <c r="E159" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A160">
+        <v>2227</v>
+      </c>
+      <c r="B160" t="s">
+        <v>437</v>
+      </c>
+      <c r="C160" t="s">
+        <v>145</v>
+      </c>
+      <c r="D160" t="s">
+        <v>11</v>
+      </c>
+      <c r="E160" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A161">
+        <v>2228</v>
+      </c>
+      <c r="B161" t="s">
+        <v>439</v>
+      </c>
+      <c r="C161" t="s">
+        <v>440</v>
+      </c>
+      <c r="D161" t="s">
+        <v>42</v>
+      </c>
+      <c r="E161" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A162">
+        <v>2229</v>
+      </c>
+      <c r="B162" t="s">
+        <v>442</v>
+      </c>
+      <c r="C162" t="s">
+        <v>443</v>
+      </c>
+      <c r="D162" t="s">
+        <v>11</v>
+      </c>
+      <c r="E162" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A163">
+        <v>2230</v>
+      </c>
+      <c r="B163" t="s">
+        <v>445</v>
+      </c>
+      <c r="C163" t="s">
+        <v>14</v>
+      </c>
+      <c r="D163" t="s">
+        <v>15</v>
+      </c>
+      <c r="E163" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A164">
+        <v>2231</v>
+      </c>
+      <c r="B164" t="s">
+        <v>446</v>
+      </c>
+      <c r="C164" t="s">
+        <v>447</v>
+      </c>
+      <c r="D164" t="s">
+        <v>42</v>
+      </c>
+      <c r="E164" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A165">
+        <v>2232</v>
+      </c>
+      <c r="B165" t="s">
+        <v>449</v>
+      </c>
+      <c r="C165" t="s">
+        <v>450</v>
+      </c>
+      <c r="D165" t="s">
+        <v>11</v>
+      </c>
+      <c r="E165" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A166">
+        <v>2233</v>
+      </c>
+      <c r="B166" t="s">
+        <v>452</v>
+      </c>
+      <c r="C166" t="s">
+        <v>453</v>
+      </c>
+      <c r="D166" t="s">
+        <v>425</v>
+      </c>
+      <c r="E166" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A167">
+        <v>2234</v>
+      </c>
+      <c r="B167" t="s">
+        <v>455</v>
+      </c>
+      <c r="C167" t="s">
+        <v>456</v>
+      </c>
+      <c r="D167" t="s">
+        <v>15</v>
+      </c>
+      <c r="E167" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A168">
+        <v>2235</v>
+      </c>
+      <c r="B168" t="s">
+        <v>458</v>
+      </c>
+      <c r="C168" t="s">
+        <v>459</v>
+      </c>
+      <c r="D168" t="s">
+        <v>11</v>
+      </c>
+      <c r="E168" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A169">
+        <v>2236</v>
+      </c>
+      <c r="B169" t="s">
+        <v>461</v>
+      </c>
+      <c r="C169" t="s">
+        <v>462</v>
+      </c>
+      <c r="D169" t="s">
+        <v>15</v>
+      </c>
+      <c r="E169" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A170">
+        <v>2237</v>
+      </c>
+      <c r="B170" t="s">
+        <v>464</v>
+      </c>
+      <c r="C170" t="s">
+        <v>465</v>
+      </c>
+      <c r="D170" t="s">
+        <v>27</v>
+      </c>
+      <c r="E170" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A171">
+        <v>2238</v>
+      </c>
+      <c r="B171" t="s">
+        <v>467</v>
+      </c>
+      <c r="C171" t="s">
+        <v>468</v>
+      </c>
+      <c r="D171" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A172">
+        <v>2239</v>
+      </c>
+      <c r="B172" t="s">
+        <v>469</v>
+      </c>
+      <c r="C172" t="s">
+        <v>470</v>
+      </c>
+      <c r="D172" t="s">
+        <v>133</v>
+      </c>
+      <c r="E172" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A173">
+        <v>2240</v>
+      </c>
+      <c r="B173" t="s">
+        <v>472</v>
+      </c>
+      <c r="C173" t="s">
+        <v>473</v>
+      </c>
+      <c r="D173" t="s">
+        <v>11</v>
+      </c>
+      <c r="E173" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A174">
+        <v>2241</v>
+      </c>
+      <c r="B174" t="s">
+        <v>475</v>
+      </c>
+      <c r="C174" t="s">
+        <v>476</v>
+      </c>
+      <c r="D174" t="s">
+        <v>11</v>
+      </c>
+      <c r="E174" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A175">
+        <v>2242</v>
+      </c>
+      <c r="B175" t="s">
+        <v>478</v>
+      </c>
+      <c r="C175" t="s">
+        <v>479</v>
+      </c>
+      <c r="D175" t="s">
+        <v>11</v>
+      </c>
+      <c r="E175" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A176">
+        <v>2243</v>
+      </c>
+      <c r="B176" t="s">
+        <v>481</v>
+      </c>
+      <c r="C176" t="s">
+        <v>482</v>
+      </c>
+      <c r="D176" t="s">
+        <v>11</v>
+      </c>
+      <c r="E176" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A177">
+        <v>2244</v>
+      </c>
+      <c r="B177" t="s">
+        <v>484</v>
+      </c>
+      <c r="C177" t="s">
+        <v>485</v>
+      </c>
+      <c r="D177" t="s">
+        <v>11</v>
+      </c>
+      <c r="E177" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A178">
+        <v>2245</v>
+      </c>
+      <c r="B178" t="s">
+        <v>487</v>
+      </c>
+      <c r="C178" t="s">
+        <v>488</v>
+      </c>
+      <c r="D178" t="s">
+        <v>11</v>
+      </c>
+      <c r="E178" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A179">
+        <v>2246</v>
+      </c>
+      <c r="B179" t="s">
+        <v>490</v>
+      </c>
+      <c r="C179" t="s">
+        <v>491</v>
+      </c>
+      <c r="D179" t="s">
+        <v>11</v>
+      </c>
+      <c r="E179" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A180">
+        <v>2247</v>
+      </c>
+      <c r="B180" t="s">
+        <v>493</v>
+      </c>
+      <c r="C180" t="s">
+        <v>494</v>
+      </c>
+      <c r="D180" t="s">
+        <v>11</v>
+      </c>
+      <c r="E180" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A181">
+        <v>2248</v>
+      </c>
+      <c r="B181" t="s">
+        <v>496</v>
+      </c>
+      <c r="C181" t="s">
+        <v>497</v>
+      </c>
+      <c r="D181" t="s">
+        <v>11</v>
+      </c>
+      <c r="E181" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A182">
+        <v>2249</v>
+      </c>
+      <c r="B182" t="s">
+        <v>499</v>
+      </c>
+      <c r="C182" t="s">
+        <v>500</v>
+      </c>
+      <c r="D182" t="s">
+        <v>15</v>
+      </c>
+      <c r="E182" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A183">
+        <v>2250</v>
+      </c>
+      <c r="B183" t="s">
+        <v>502</v>
+      </c>
+      <c r="C183" t="s">
+        <v>503</v>
+      </c>
+      <c r="D183" t="s">
+        <v>19</v>
+      </c>
+      <c r="E183" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A184">
+        <v>2251</v>
+      </c>
+      <c r="B184" t="s">
+        <v>505</v>
+      </c>
+      <c r="C184" t="s">
+        <v>506</v>
+      </c>
+      <c r="D184" t="s">
+        <v>11</v>
+      </c>
+      <c r="E184" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A185">
+        <v>2252</v>
+      </c>
+      <c r="B185" t="s">
+        <v>508</v>
+      </c>
+      <c r="C185" t="s">
+        <v>509</v>
+      </c>
+      <c r="D185" t="s">
+        <v>65</v>
+      </c>
+      <c r="E185" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A186">
+        <v>2253</v>
+      </c>
+      <c r="B186" t="s">
+        <v>511</v>
+      </c>
+      <c r="C186" t="s">
+        <v>512</v>
+      </c>
+      <c r="D186" t="s">
+        <v>19</v>
+      </c>
+      <c r="E186" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A187">
+        <v>2254</v>
+      </c>
+      <c r="B187" t="s">
+        <v>514</v>
+      </c>
+      <c r="C187" t="s">
+        <v>515</v>
+      </c>
+      <c r="D187" t="s">
+        <v>11</v>
+      </c>
+      <c r="E187" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A188">
+        <v>2255</v>
+      </c>
+      <c r="B188" t="s">
+        <v>517</v>
+      </c>
+      <c r="C188" t="s">
+        <v>518</v>
+      </c>
+      <c r="D188" t="s">
+        <v>42</v>
+      </c>
+      <c r="E188" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A189">
+        <v>2256</v>
+      </c>
+      <c r="B189" t="s">
+        <v>520</v>
+      </c>
+      <c r="C189" t="s">
+        <v>108</v>
+      </c>
+      <c r="D189" t="s">
+        <v>15</v>
+      </c>
+      <c r="E189" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A190">
+        <v>2257</v>
+      </c>
+      <c r="B190" t="s">
+        <v>522</v>
+      </c>
+      <c r="C190" t="s">
+        <v>108</v>
+      </c>
+      <c r="D190" t="s">
+        <v>15</v>
+      </c>
+      <c r="E190" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A191">
+        <v>2258</v>
+      </c>
+      <c r="B191" t="s">
+        <v>520</v>
+      </c>
+      <c r="C191" t="s">
+        <v>108</v>
+      </c>
+      <c r="D191" t="s">
+        <v>15</v>
+      </c>
+      <c r="E191" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A192">
+        <v>2259</v>
+      </c>
+      <c r="B192" t="s">
+        <v>520</v>
+      </c>
+      <c r="C192" t="s">
+        <v>108</v>
+      </c>
+      <c r="D192" t="s">
+        <v>15</v>
+      </c>
+      <c r="E192" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A193">
+        <v>2260</v>
+      </c>
+      <c r="B193" t="s">
+        <v>520</v>
+      </c>
+      <c r="C193" t="s">
+        <v>108</v>
+      </c>
+      <c r="D193" t="s">
+        <v>15</v>
+      </c>
+      <c r="E193" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A194">
+        <v>2261</v>
+      </c>
+      <c r="B194" t="s">
+        <v>520</v>
+      </c>
+      <c r="C194" t="s">
+        <v>108</v>
+      </c>
+      <c r="D194" t="s">
+        <v>15</v>
+      </c>
+      <c r="E194" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A195">
+        <v>2262</v>
+      </c>
+      <c r="B195" t="s">
+        <v>520</v>
+      </c>
+      <c r="C195" t="s">
+        <v>108</v>
+      </c>
+      <c r="D195" t="s">
+        <v>15</v>
+      </c>
+      <c r="E195" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A196">
+        <v>2263</v>
+      </c>
+      <c r="B196" t="s">
+        <v>520</v>
+      </c>
+      <c r="C196" t="s">
+        <v>108</v>
+      </c>
+      <c r="D196" t="s">
+        <v>15</v>
+      </c>
+      <c r="E196" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A197">
+        <v>2264</v>
+      </c>
+      <c r="B197" t="s">
+        <v>520</v>
+      </c>
+      <c r="C197" t="s">
+        <v>108</v>
+      </c>
+      <c r="D197" t="s">
+        <v>15</v>
+      </c>
+      <c r="E197" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A198">
+        <v>2265</v>
+      </c>
+      <c r="B198" t="s">
+        <v>525</v>
+      </c>
+      <c r="C198" t="s">
+        <v>526</v>
+      </c>
+      <c r="D198" t="s">
+        <v>15</v>
+      </c>
+      <c r="E198" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A199">
+        <v>2266</v>
+      </c>
+      <c r="B199" t="s">
+        <v>528</v>
+      </c>
+      <c r="C199" t="s">
+        <v>529</v>
+      </c>
+      <c r="D199" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A200">
+        <v>2267</v>
+      </c>
+      <c r="B200" t="s">
+        <v>530</v>
+      </c>
+      <c r="C200" t="s">
+        <v>531</v>
+      </c>
+      <c r="D200" t="s">
+        <v>11</v>
+      </c>
+      <c r="E200" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A201">
+        <v>2268</v>
+      </c>
+      <c r="B201" t="s">
+        <v>533</v>
+      </c>
+      <c r="C201" t="s">
+        <v>61</v>
+      </c>
+      <c r="D201" t="s">
+        <v>42</v>
+      </c>
+      <c r="E201" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A202">
+        <v>2269</v>
+      </c>
+      <c r="B202" t="s">
+        <v>530</v>
+      </c>
+      <c r="C202" t="s">
+        <v>531</v>
+      </c>
+      <c r="D202" t="s">
+        <v>11</v>
+      </c>
+      <c r="E202" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A203">
+        <v>2270</v>
+      </c>
+      <c r="B203" t="s">
+        <v>534</v>
+      </c>
+      <c r="C203" t="s">
+        <v>535</v>
+      </c>
+      <c r="D203" t="s">
+        <v>15</v>
+      </c>
+      <c r="E203" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A204">
+        <v>2271</v>
+      </c>
+      <c r="B204" t="s">
+        <v>537</v>
+      </c>
+      <c r="C204" t="s">
+        <v>538</v>
+      </c>
+      <c r="D204" t="s">
+        <v>15</v>
+      </c>
+      <c r="E204" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A205">
+        <v>2272</v>
+      </c>
+      <c r="B205" t="s">
+        <v>540</v>
+      </c>
+      <c r="C205" t="s">
+        <v>541</v>
+      </c>
+      <c r="D205" t="s">
+        <v>7</v>
+      </c>
+      <c r="E205" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A206">
+        <v>2273</v>
+      </c>
+      <c r="B206" t="s">
+        <v>543</v>
+      </c>
+      <c r="C206" t="s">
+        <v>544</v>
+      </c>
+      <c r="D206" t="s">
+        <v>65</v>
+      </c>
+      <c r="E206" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A207">
+        <v>2274</v>
+      </c>
+      <c r="B207" t="s">
+        <v>546</v>
+      </c>
+      <c r="C207" t="s">
+        <v>547</v>
+      </c>
+      <c r="D207" t="s">
+        <v>11</v>
+      </c>
+      <c r="E207" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A208">
+        <v>2275</v>
+      </c>
+      <c r="B208" t="s">
+        <v>549</v>
+      </c>
+      <c r="C208" t="s">
+        <v>549</v>
+      </c>
+      <c r="D208" t="s">
+        <v>15</v>
+      </c>
+      <c r="E208" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A209">
+        <v>2276</v>
+      </c>
+      <c r="B209" t="s">
+        <v>551</v>
+      </c>
+      <c r="C209" t="s">
+        <v>552</v>
+      </c>
+      <c r="D209" t="s">
+        <v>7</v>
+      </c>
+      <c r="E209" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A210">
+        <v>2277</v>
+      </c>
+      <c r="B210" t="s">
+        <v>554</v>
+      </c>
+      <c r="C210" t="s">
+        <v>555</v>
+      </c>
+      <c r="D210" t="s">
+        <v>15</v>
+      </c>
+      <c r="E210" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A211">
+        <v>2278</v>
+      </c>
+      <c r="B211" t="s">
+        <v>557</v>
+      </c>
+      <c r="C211" t="s">
+        <v>558</v>
+      </c>
+      <c r="D211" t="s">
+        <v>11</v>
+      </c>
+      <c r="E211" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A212">
+        <v>2279</v>
+      </c>
+      <c r="B212" t="s">
+        <v>560</v>
+      </c>
+      <c r="C212" t="s">
+        <v>561</v>
+      </c>
+      <c r="D212" t="s">
+        <v>49</v>
+      </c>
+      <c r="E212" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A213">
+        <v>2280</v>
+      </c>
+      <c r="B213" t="s">
+        <v>563</v>
+      </c>
+      <c r="C213" t="s">
+        <v>564</v>
+      </c>
+      <c r="D213" t="s">
+        <v>11</v>
+      </c>
+      <c r="E213" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A214">
+        <v>2281</v>
+      </c>
+      <c r="B214" t="s">
+        <v>566</v>
+      </c>
+      <c r="C214" t="s">
+        <v>567</v>
+      </c>
+      <c r="D214" t="s">
+        <v>263</v>
+      </c>
+      <c r="E214" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A215">
+        <v>2282</v>
+      </c>
+      <c r="B215" t="s">
+        <v>196</v>
+      </c>
+      <c r="C215" t="s">
+        <v>197</v>
+      </c>
+      <c r="D215" t="s">
+        <v>11</v>
+      </c>
+      <c r="E215" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A216">
+        <v>2283</v>
+      </c>
+      <c r="B216" t="s">
+        <v>569</v>
+      </c>
+      <c r="C216" t="s">
+        <v>570</v>
+      </c>
+      <c r="D216" t="s">
+        <v>7</v>
+      </c>
+      <c r="E216" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A217">
+        <v>2284</v>
+      </c>
+      <c r="B217" t="s">
+        <v>572</v>
+      </c>
+      <c r="C217" t="s">
+        <v>573</v>
+      </c>
+      <c r="D217" t="s">
+        <v>11</v>
+      </c>
+      <c r="E217" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A218">
+        <v>2285</v>
+      </c>
+      <c r="B218" t="s">
+        <v>575</v>
+      </c>
+      <c r="C218" t="s">
+        <v>576</v>
+      </c>
+      <c r="D218" t="s">
+        <v>15</v>
+      </c>
+      <c r="E218" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A219">
+        <v>2286</v>
+      </c>
+      <c r="B219" t="s">
+        <v>578</v>
+      </c>
+      <c r="C219" t="s">
+        <v>579</v>
+      </c>
+      <c r="D219" t="s">
+        <v>15</v>
+      </c>
+      <c r="E219" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A220">
+        <v>2287</v>
+      </c>
+      <c r="B220" t="s">
+        <v>581</v>
+      </c>
+      <c r="C220" t="s">
+        <v>582</v>
+      </c>
+      <c r="D220" t="s">
+        <v>11</v>
+      </c>
+      <c r="E220" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A221">
+        <v>2288</v>
+      </c>
+      <c r="B221" t="s">
+        <v>584</v>
+      </c>
+      <c r="C221" t="s">
+        <v>585</v>
+      </c>
+      <c r="D221" t="s">
+        <v>149</v>
+      </c>
+      <c r="E221" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A222">
+        <v>2289</v>
+      </c>
+      <c r="B222" t="s">
+        <v>587</v>
+      </c>
+      <c r="C222" t="s">
+        <v>588</v>
+      </c>
+      <c r="D222" t="s">
+        <v>133</v>
+      </c>
+      <c r="E222" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A223">
+        <v>2290</v>
+      </c>
+      <c r="B223" t="s">
+        <v>590</v>
+      </c>
+      <c r="C223" t="s">
+        <v>579</v>
+      </c>
+      <c r="D223" t="s">
+        <v>15</v>
+      </c>
+      <c r="E223" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A224">
+        <v>2291</v>
+      </c>
+      <c r="B224" t="s">
+        <v>591</v>
+      </c>
+      <c r="C224" t="s">
+        <v>592</v>
+      </c>
+      <c r="D224" t="s">
+        <v>65</v>
+      </c>
+      <c r="E224" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A225">
+        <v>2292</v>
+      </c>
+      <c r="B225" t="s">
+        <v>594</v>
+      </c>
+      <c r="C225" t="s">
+        <v>595</v>
+      </c>
+      <c r="D225" t="s">
+        <v>56</v>
+      </c>
+      <c r="E225" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A226">
+        <v>2293</v>
+      </c>
+      <c r="B226" t="s">
+        <v>597</v>
+      </c>
+      <c r="C226" t="s">
+        <v>598</v>
+      </c>
+      <c r="D226" t="s">
+        <v>11</v>
+      </c>
+      <c r="E226" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A227">
+        <v>2294</v>
+      </c>
+      <c r="B227" t="s">
+        <v>600</v>
+      </c>
+      <c r="C227" t="s">
+        <v>601</v>
+      </c>
+      <c r="D227" t="s">
+        <v>49</v>
+      </c>
+      <c r="E227" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A228">
+        <v>2295</v>
+      </c>
+      <c r="B228" t="s">
+        <v>603</v>
+      </c>
+      <c r="C228" t="s">
+        <v>604</v>
+      </c>
+      <c r="D228" t="s">
+        <v>11</v>
+      </c>
+      <c r="E228" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A229">
+        <v>2296</v>
+      </c>
+      <c r="B229" t="s">
+        <v>606</v>
+      </c>
+      <c r="C229" t="s">
+        <v>485</v>
+      </c>
+      <c r="D229" t="s">
+        <v>11</v>
+      </c>
+      <c r="E229" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A230">
+        <v>2297</v>
+      </c>
+      <c r="B230" t="s">
+        <v>607</v>
+      </c>
+      <c r="C230" t="s">
+        <v>608</v>
+      </c>
+      <c r="D230" t="s">
+        <v>11</v>
+      </c>
+      <c r="E230" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A231">
+        <v>2298</v>
+      </c>
+      <c r="B231" t="s">
+        <v>610</v>
+      </c>
+      <c r="C231" t="s">
+        <v>611</v>
+      </c>
+      <c r="D231" t="s">
+        <v>49</v>
+      </c>
+      <c r="E231" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A232">
+        <v>2299</v>
+      </c>
+      <c r="B232" t="s">
+        <v>613</v>
+      </c>
+      <c r="C232" t="s">
+        <v>614</v>
+      </c>
+      <c r="D232" t="s">
+        <v>56</v>
+      </c>
+      <c r="E232" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A233">
+        <v>2300</v>
+      </c>
+      <c r="B233" t="s">
+        <v>613</v>
+      </c>
+      <c r="C233" t="s">
+        <v>614</v>
+      </c>
+      <c r="D233" t="s">
+        <v>56</v>
+      </c>
+      <c r="E233" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A234">
+        <v>2301</v>
+      </c>
+      <c r="B234" t="s">
+        <v>616</v>
+      </c>
+      <c r="C234" t="s">
+        <v>617</v>
+      </c>
+      <c r="D234" t="s">
+        <v>11</v>
+      </c>
+      <c r="E234" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A235">
+        <v>2302</v>
+      </c>
+      <c r="B235" t="s">
+        <v>619</v>
+      </c>
+      <c r="C235" t="s">
+        <v>620</v>
+      </c>
+      <c r="D235" t="s">
+        <v>133</v>
+      </c>
+      <c r="E235" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A236">
+        <v>2303</v>
+      </c>
+      <c r="B236" t="s">
+        <v>622</v>
+      </c>
+      <c r="C236" t="s">
+        <v>623</v>
+      </c>
+      <c r="D236" t="s">
+        <v>56</v>
+      </c>
+      <c r="E236" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A237">
+        <v>2304</v>
+      </c>
+      <c r="B237" t="s">
+        <v>625</v>
+      </c>
+      <c r="C237" t="s">
+        <v>626</v>
+      </c>
+      <c r="D237" t="s">
+        <v>11</v>
+      </c>
+      <c r="E237" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A238">
+        <v>2305</v>
+      </c>
+      <c r="B238" t="s">
+        <v>628</v>
+      </c>
+      <c r="C238" t="s">
+        <v>500</v>
+      </c>
+      <c r="D238" t="s">
+        <v>42</v>
+      </c>
+      <c r="E238" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A239">
+        <v>2306</v>
+      </c>
+      <c r="B239" t="s">
+        <v>630</v>
+      </c>
+      <c r="C239" t="s">
+        <v>631</v>
+      </c>
+      <c r="D239" t="s">
+        <v>133</v>
+      </c>
+      <c r="E239" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A240">
+        <v>2307</v>
+      </c>
+      <c r="B240" t="s">
+        <v>633</v>
+      </c>
+      <c r="C240" t="s">
+        <v>634</v>
+      </c>
+      <c r="D240" t="s">
+        <v>19</v>
+      </c>
+      <c r="E240" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A241">
+        <v>2308</v>
+      </c>
+      <c r="B241" t="s">
+        <v>636</v>
+      </c>
+      <c r="C241" t="s">
+        <v>637</v>
+      </c>
+      <c r="D241" t="s">
+        <v>27</v>
+      </c>
+      <c r="E241" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A242">
+        <v>2309</v>
+      </c>
+      <c r="B242" t="s">
+        <v>639</v>
+      </c>
+      <c r="C242" t="s">
+        <v>640</v>
+      </c>
+      <c r="D242" t="s">
+        <v>149</v>
+      </c>
+      <c r="E242" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A243">
+        <v>2310</v>
+      </c>
+      <c r="B243" t="s">
+        <v>642</v>
+      </c>
+      <c r="C243" t="s">
+        <v>643</v>
+      </c>
+      <c r="D243" t="s">
+        <v>65</v>
+      </c>
+      <c r="E243" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A244">
+        <v>2311</v>
+      </c>
+      <c r="B244" t="s">
+        <v>590</v>
+      </c>
+      <c r="C244" t="s">
+        <v>579</v>
+      </c>
+      <c r="D244" t="s">
+        <v>15</v>
+      </c>
+      <c r="E244" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A245">
+        <v>2312</v>
+      </c>
+      <c r="B245" t="s">
+        <v>645</v>
+      </c>
+      <c r="C245" t="s">
+        <v>646</v>
+      </c>
+      <c r="D245" t="s">
+        <v>11</v>
+      </c>
+      <c r="E245" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A246">
+        <v>2313</v>
+      </c>
+      <c r="B246" t="s">
+        <v>648</v>
+      </c>
+      <c r="C246" t="s">
+        <v>649</v>
+      </c>
+      <c r="D246" t="s">
+        <v>49</v>
+      </c>
+      <c r="E246" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A247">
+        <v>2314</v>
+      </c>
+      <c r="B247" t="s">
+        <v>651</v>
+      </c>
+      <c r="C247" t="s">
+        <v>652</v>
+      </c>
+      <c r="D247" t="s">
+        <v>15</v>
+      </c>
+      <c r="E247" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A248">
+        <v>2315</v>
+      </c>
+      <c r="B248" t="s">
+        <v>651</v>
+      </c>
+      <c r="C248" t="s">
+        <v>652</v>
+      </c>
+      <c r="D248" t="s">
+        <v>15</v>
+      </c>
+      <c r="E248" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A249">
+        <v>2316</v>
+      </c>
+      <c r="B249" t="s">
+        <v>654</v>
+      </c>
+      <c r="C249" t="s">
+        <v>655</v>
+      </c>
+      <c r="D249" t="s">
+        <v>133</v>
+      </c>
+      <c r="E249" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A250">
+        <v>2317</v>
+      </c>
+      <c r="B250" t="s">
+        <v>639</v>
+      </c>
+      <c r="C250" t="s">
+        <v>640</v>
+      </c>
+      <c r="D250" t="s">
+        <v>149</v>
+      </c>
+      <c r="E250" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A251">
+        <v>2318</v>
+      </c>
+      <c r="B251" t="s">
+        <v>657</v>
+      </c>
+      <c r="C251" t="s">
+        <v>658</v>
+      </c>
+      <c r="D251" t="s">
+        <v>15</v>
+      </c>
+      <c r="E251" t="s">
+        <v>659</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>